--- a/Technology/Software/Elastic N.V.xlsx
+++ b/Technology/Software/Elastic N.V.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A00329-FF9A-2A49-84FD-661193BC2B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B98F7E-8ECA-F74B-ACE2-848E345E6EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,9 +537,6 @@
     <t>Equity Value</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>Intrinsic Value</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
   </si>
 </sst>
 </file>
@@ -898,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1018,6 +1018,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1030,12 +1036,8 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2251,13 +2253,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>92.29</v>
+    <v>91.3</v>
     <v>46.18</v>
-    <v>1.0599000000000001</v>
-    <v>0.3</v>
-    <v>5.0010000000000002E-3</v>
-    <v>0.21</v>
-    <v>3.483E-3</v>
+    <v>1.0353000000000001</v>
+    <v>-0.01</v>
+    <v>-1.4999999999999999E-4</v>
+    <v>0.19</v>
+    <v>2.8499999999999997E-3</v>
     <v>USD</v>
     <v>Elastic NV is a Netherlands-based data analytics company. The Company’s platform, which is available as both a hosted, managed service across public clouds as well as self-managed software, allows its customers to find insights from large amounts of data and take action. The Company offers three search-powered solutions - Enterprise Search, Observability, and Security - that are built into the platform, which is built on the Elastic Stack, a set of software products that ingest data from any source, in any format, and perform search, analysis, and visualization of that data. The Company helps organizations, their employees, and their customers find what they need, while keeping mission-critical applications running smoothly, and protecting against cyber threats. The Company generates revenue primarily from sales of subscriptions to its platform.</v>
     <v>2966</v>
@@ -2265,24 +2267,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Keizersgracht 281, AMSTERDAM, NOORD-HOLLAND, Amsterdam NL</v>
-    <v>60.924999999999997</v>
+    <v>68.94</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.988435578125</v>
+    <v>45071.968208923441</v>
     <v>0</v>
-    <v>59.52</v>
-    <v>5817524000</v>
+    <v>65.89</v>
+    <v>6433145641</v>
     <v>Elastic NV</v>
     <v>Elastic NV</v>
-    <v>60.24</v>
-    <v>59.99</v>
-    <v>60.29</v>
-    <v>60.5</v>
+    <v>67.89</v>
+    <v>66.680000000000007</v>
+    <v>66.67</v>
+    <v>66.86</v>
     <v>96492360</v>
     <v>ESTC</v>
     <v>Elastic NV (XNYS:ESTC)</v>
-    <v>607048</v>
-    <v>798215</v>
+    <v>1059779</v>
+    <v>902503</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2444,9 +2446,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2866,10 +2868,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J91" sqref="J91"/>
+      <selection pane="bottomRight" activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3465,15 +3467,15 @@
       </c>
       <c r="N16" s="32">
         <f>O101/G3</f>
-        <v>6.7459408562874117</v>
+        <v>7.4598093646144248</v>
       </c>
       <c r="O16" s="32">
         <f>O101/G28</f>
-        <v>-28.538538518896434</v>
+        <v>-31.558541859620895</v>
       </c>
       <c r="P16" s="33">
         <f>O101/G106</f>
-        <v>-3333.8246418338108</v>
+        <v>-3686.6164131805158</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19">
@@ -5046,10 +5048,10 @@
       <c r="G83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N83" s="61" t="s">
+      <c r="N83" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="O83" s="62"/>
+      <c r="O83" s="64"/>
     </row>
     <row r="84" spans="1:15" ht="19">
       <c r="A84" s="5" t="s">
@@ -5073,10 +5075,10 @@
       <c r="G84" s="1">
         <v>21036000</v>
       </c>
-      <c r="N84" s="63" t="s">
+      <c r="N84" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="O84" s="64"/>
+      <c r="O84" s="66"/>
     </row>
     <row r="85" spans="1:15" ht="20">
       <c r="A85" s="5" t="s">
@@ -5346,10 +5348,10 @@
       <c r="G93" s="1">
         <v>-4932000</v>
       </c>
-      <c r="N93" s="63" t="s">
+      <c r="N93" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="O93" s="64"/>
+      <c r="O93" s="66"/>
     </row>
     <row r="94" spans="1:15" ht="20">
       <c r="A94" s="6" t="s">
@@ -5407,7 +5409,7 @@
       </c>
       <c r="O95" s="40" cm="1">
         <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>1.0599000000000001</v>
+        <v>1.0353000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20">
@@ -5466,7 +5468,7 @@
       </c>
       <c r="O97" s="38">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.6578695000000011E-2</v>
+        <v>8.5519665000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19">
@@ -5491,10 +5493,10 @@
       <c r="G98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N98" s="63" t="s">
+      <c r="N98" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="O98" s="64"/>
+      <c r="O98" s="66"/>
     </row>
     <row r="99" spans="1:16" ht="20">
       <c r="A99" s="5" t="s">
@@ -5553,7 +5555,7 @@
       </c>
       <c r="O100" s="36">
         <f>O99/O103</f>
-        <v>9.2676954557612629E-2</v>
+        <v>8.455813256321601E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20">
@@ -5583,7 +5585,7 @@
       </c>
       <c r="O101" s="41" cm="1">
         <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5817524000</v>
+        <v>6433145641</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20">
@@ -5613,7 +5615,7 @@
       </c>
       <c r="O102" s="36">
         <f>O101/O103</f>
-        <v>0.9073230454423874</v>
+        <v>0.91544186743678402</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="20">
@@ -5643,7 +5645,7 @@
       </c>
       <c r="O103" s="42">
         <f>O99+O101</f>
-        <v>6411745000</v>
+        <v>7027366641</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" thickBot="1">
@@ -5668,10 +5670,10 @@
       <c r="G104" s="11">
         <v>863637000</v>
       </c>
-      <c r="N104" s="63" t="s">
+      <c r="N104" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="O104" s="64"/>
+      <c r="O104" s="66"/>
     </row>
     <row r="105" spans="1:16" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
@@ -5698,18 +5700,28 @@
         <f>(G106/F106)-1</f>
         <v>-1.0952718934265124</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
+      <c r="H105" s="67">
+        <v>-83258000</v>
+      </c>
+      <c r="I105" s="67">
+        <v>26371000</v>
+      </c>
+      <c r="J105" s="67">
+        <v>20038000</v>
+      </c>
+      <c r="K105" s="67">
+        <v>221500000</v>
+      </c>
+      <c r="L105" s="67">
+        <v>221500000</v>
+      </c>
       <c r="M105" s="15"/>
       <c r="N105" s="26" t="s">
         <v>108</v>
       </c>
       <c r="O105" s="27">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>8.1884766603995282E-2</v>
+        <v>8.1326490577323496E-2</v>
       </c>
       <c r="P105" s="15"/>
     </row>
@@ -5778,9 +5790,9 @@
       <c r="I107" s="44"/>
       <c r="J107" s="44"/>
       <c r="K107" s="44"/>
-      <c r="L107" s="47">
-        <f>L106*(1+O107)/(O108-O107)</f>
-        <v>-87154517.516468793</v>
+      <c r="L107" s="68">
+        <f>L105*(1+O107)/(O108-O107)</f>
+        <v>4030741089.5470042</v>
       </c>
       <c r="M107" s="48" t="s">
         <v>148</v>
@@ -5809,9 +5821,9 @@
         <f>K107+K106</f>
         <v>-3944652.0481484607</v>
       </c>
-      <c r="L108" s="47">
-        <f>L107+L106</f>
-        <v>-91991360.821257234</v>
+      <c r="L108" s="68">
+        <f>L107+L105</f>
+        <v>4252241089.5470042</v>
       </c>
       <c r="M108" s="48" t="s">
         <v>144</v>
@@ -5821,14 +5833,14 @@
       </c>
       <c r="O108" s="52">
         <f>O105</f>
-        <v>8.1884766603995282E-2</v>
+        <v>8.1326490577323496E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19">
-      <c r="H109" s="65" t="s">
+      <c r="H109" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="I109" s="66"/>
+      <c r="I109" s="62"/>
     </row>
     <row r="110" spans="1:16" ht="20">
       <c r="H110" s="53" t="s">
@@ -5836,7 +5848,7 @@
       </c>
       <c r="I110" s="41">
         <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>-71703307.182292402</v>
+        <v>2866644384.4941287</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20">
@@ -5863,48 +5875,48 @@
       </c>
       <c r="I113" s="41">
         <f>I110+I111-I112</f>
-        <v>195024692.81770754</v>
+        <v>3133372384.4941287</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20">
       <c r="H114" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="I114" s="54">
-        <f>G34*(1+(5*M16))</f>
-        <v>137753311.03079018</v>
+        <v>159</v>
+      </c>
+      <c r="I114" s="54" cm="1">
+        <f t="array" ref="I114">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>96492360</v>
       </c>
     </row>
     <row r="115" spans="8:9" ht="20">
       <c r="H115" s="55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I115" s="56">
         <f>I113/I114</f>
-        <v>1.4157532139036297</v>
+        <v>32.472751049866837</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20">
       <c r="H116" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I116" s="57" cm="1">
         <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>60.29</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20">
       <c r="H117" s="58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I117" s="59">
         <f>I115/I116-1</f>
-        <v>-0.97651761131359049</v>
+        <v>-0.51293308759761758</v>
       </c>
     </row>
     <row r="118" spans="8:9" ht="20">
       <c r="H118" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I118" s="60" t="str">
         <f>IF(I115&gt;I116,"BUY","SELL")</f>

--- a/Technology/Software/Elastic N.V.xlsx
+++ b/Technology/Software/Elastic N.V.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B98F7E-8ECA-F74B-ACE2-848E345E6EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2C740B-8D4D-6846-A27D-CF10D82B2C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,6 +1018,8 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1036,8 +1038,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2255,11 +2255,11 @@
     <v>Powered by Refinitiv</v>
     <v>91.3</v>
     <v>46.18</v>
-    <v>1.0353000000000001</v>
-    <v>-0.01</v>
-    <v>-1.4999999999999999E-4</v>
-    <v>0.19</v>
-    <v>2.8499999999999997E-3</v>
+    <v>1.0589</v>
+    <v>2.4300000000000002</v>
+    <v>3.6448000000000001E-2</v>
+    <v>-0.1</v>
+    <v>-1.4469999999999999E-3</v>
     <v>USD</v>
     <v>Elastic NV is a Netherlands-based data analytics company. The Company’s platform, which is available as both a hosted, managed service across public clouds as well as self-managed software, allows its customers to find insights from large amounts of data and take action. The Company offers three search-powered solutions - Enterprise Search, Observability, and Security - that are built into the platform, which is built on the Elastic Stack, a set of software products that ingest data from any source, in any format, and perform search, analysis, and visualization of that data. The Company helps organizations, their employees, and their customers find what they need, while keeping mission-critical applications running smoothly, and protecting against cyber threats. The Company generates revenue primarily from sales of subscriptions to its platform.</v>
     <v>2966</v>
@@ -2267,24 +2267,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Keizersgracht 281, AMSTERDAM, NOORD-HOLLAND, Amsterdam NL</v>
-    <v>68.94</v>
+    <v>69.97</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.968208923441</v>
+    <v>45072.99886799766</v>
     <v>0</v>
-    <v>65.89</v>
-    <v>6433145641</v>
+    <v>66.7</v>
+    <v>6667622000</v>
     <v>Elastic NV</v>
     <v>Elastic NV</v>
-    <v>67.89</v>
-    <v>66.680000000000007</v>
+    <v>66.7</v>
     <v>66.67</v>
-    <v>66.86</v>
+    <v>69.099999999999994</v>
+    <v>69</v>
     <v>96492360</v>
     <v>ESTC</v>
     <v>Elastic NV (XNYS:ESTC)</v>
-    <v>1059779</v>
-    <v>902503</v>
+    <v>1032223</v>
+    <v>901611</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2446,9 +2446,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2868,10 +2868,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I127" sqref="I127"/>
+      <selection pane="bottomRight" activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3467,15 +3467,15 @@
       </c>
       <c r="N16" s="32">
         <f>O101/G3</f>
-        <v>7.4598093646144248</v>
+        <v>7.7317057332433494</v>
       </c>
       <c r="O16" s="32">
         <f>O101/G28</f>
-        <v>-31.558541859620895</v>
+        <v>-32.708792826027235</v>
       </c>
       <c r="P16" s="33">
         <f>O101/G106</f>
-        <v>-3686.6164131805158</v>
+        <v>-3820.9868194842406</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19">
@@ -5048,10 +5048,10 @@
       <c r="G83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N83" s="63" t="s">
+      <c r="N83" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="O83" s="64"/>
+      <c r="O83" s="66"/>
     </row>
     <row r="84" spans="1:15" ht="19">
       <c r="A84" s="5" t="s">
@@ -5075,10 +5075,10 @@
       <c r="G84" s="1">
         <v>21036000</v>
       </c>
-      <c r="N84" s="65" t="s">
+      <c r="N84" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="O84" s="66"/>
+      <c r="O84" s="68"/>
     </row>
     <row r="85" spans="1:15" ht="20">
       <c r="A85" s="5" t="s">
@@ -5348,10 +5348,10 @@
       <c r="G93" s="1">
         <v>-4932000</v>
       </c>
-      <c r="N93" s="65" t="s">
+      <c r="N93" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="O93" s="66"/>
+      <c r="O93" s="68"/>
     </row>
     <row r="94" spans="1:15" ht="20">
       <c r="A94" s="6" t="s">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="O95" s="40" cm="1">
         <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>1.0353000000000001</v>
+        <v>1.0589</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="O97" s="38">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.5519665000000009E-2</v>
+        <v>8.6535644999999994E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19">
@@ -5493,10 +5493,10 @@
       <c r="G98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N98" s="65" t="s">
+      <c r="N98" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="O98" s="66"/>
+      <c r="O98" s="68"/>
     </row>
     <row r="99" spans="1:16" ht="20">
       <c r="A99" s="5" t="s">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="O100" s="36">
         <f>O99/O103</f>
-        <v>8.455813256321601E-2</v>
+        <v>8.1827850037518024E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O101" s="41" cm="1">
         <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6433145641</v>
+        <v>6667622000</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="O102" s="36">
         <f>O101/O103</f>
-        <v>0.91544186743678402</v>
+        <v>0.91817214996248198</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="20">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="O103" s="42">
         <f>O99+O101</f>
-        <v>7027366641</v>
+        <v>7261843000</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" thickBot="1">
@@ -5670,10 +5670,10 @@
       <c r="G104" s="11">
         <v>863637000</v>
       </c>
-      <c r="N104" s="65" t="s">
+      <c r="N104" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="O104" s="66"/>
+      <c r="O104" s="68"/>
     </row>
     <row r="105" spans="1:16" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
@@ -5700,19 +5700,19 @@
         <f>(G106/F106)-1</f>
         <v>-1.0952718934265124</v>
       </c>
-      <c r="H105" s="67">
+      <c r="H105" s="61">
         <v>-83258000</v>
       </c>
-      <c r="I105" s="67">
+      <c r="I105" s="61">
         <v>26371000</v>
       </c>
-      <c r="J105" s="67">
+      <c r="J105" s="61">
         <v>20038000</v>
       </c>
-      <c r="K105" s="67">
+      <c r="K105" s="61">
         <v>221500000</v>
       </c>
-      <c r="L105" s="67">
+      <c r="L105" s="61">
         <v>221500000</v>
       </c>
       <c r="M105" s="15"/>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="O105" s="27">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>8.1326490577323496E-2</v>
+        <v>8.2394727782512459E-2</v>
       </c>
       <c r="P105" s="15"/>
     </row>
@@ -5790,9 +5790,9 @@
       <c r="I107" s="44"/>
       <c r="J107" s="44"/>
       <c r="K107" s="44"/>
-      <c r="L107" s="68">
+      <c r="L107" s="62">
         <f>L105*(1+O107)/(O108-O107)</f>
-        <v>4030741089.5470042</v>
+        <v>3955720477.677321</v>
       </c>
       <c r="M107" s="48" t="s">
         <v>148</v>
@@ -5821,9 +5821,9 @@
         <f>K107+K106</f>
         <v>-3944652.0481484607</v>
       </c>
-      <c r="L108" s="68">
+      <c r="L108" s="62">
         <f>L107+L105</f>
-        <v>4252241089.5470042</v>
+        <v>4177220477.677321</v>
       </c>
       <c r="M108" s="48" t="s">
         <v>144</v>
@@ -5833,14 +5833,14 @@
       </c>
       <c r="O108" s="52">
         <f>O105</f>
-        <v>8.1326490577323496E-2</v>
+        <v>8.2394727782512459E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19">
-      <c r="H109" s="61" t="s">
+      <c r="H109" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="I109" s="62"/>
+      <c r="I109" s="64"/>
     </row>
     <row r="110" spans="1:16" ht="20">
       <c r="H110" s="53" t="s">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="I110" s="41">
         <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>2866644384.4941287</v>
+        <v>2802008823.5336099</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I113" s="41">
         <f>I110+I111-I112</f>
-        <v>3133372384.4941287</v>
+        <v>3068736823.5336099</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="I115" s="56">
         <f>I113/I114</f>
-        <v>32.472751049866837</v>
+        <v>31.8028994578805</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="I116" s="57" cm="1">
         <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>66.67</v>
+        <v>69.099999999999994</v>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="I117" s="59">
         <f>I115/I116-1</f>
-        <v>-0.51293308759761758</v>
+        <v>-0.53975543476294496</v>
       </c>
     </row>
     <row r="118" spans="8:9" ht="20">

--- a/Technology/Software/Elastic N.V.xlsx
+++ b/Technology/Software/Elastic N.V.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2C740B-8D4D-6846-A27D-CF10D82B2C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC6ECF4-9E28-4943-87FB-DF89E8FCD865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
     <t>Buy/Sell</t>
   </si>
   <si>
-    <t>Shares (No dilution)</t>
+    <t>Shares (5% dilution)</t>
   </si>
 </sst>
 </file>
@@ -898,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1020,6 +1020,7 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2096,13 +2097,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>132</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
@@ -2255,36 +2256,34 @@
     <v>Powered by Refinitiv</v>
     <v>91.3</v>
     <v>46.18</v>
-    <v>1.0589</v>
-    <v>2.4300000000000002</v>
-    <v>3.6448000000000001E-2</v>
-    <v>-0.1</v>
-    <v>-1.4469999999999999E-3</v>
+    <v>1.0128999999999999</v>
+    <v>-0.64</v>
+    <v>-1.0005999999999999E-2</v>
     <v>USD</v>
     <v>Elastic NV is a Netherlands-based data analytics company. The Company’s platform, which is available as both a hosted, managed service across public clouds as well as self-managed software, allows its customers to find insights from large amounts of data and take action. The Company offers three search-powered solutions - Enterprise Search, Observability, and Security - that are built into the platform, which is built on the Elastic Stack, a set of software products that ingest data from any source, in any format, and perform search, analysis, and visualization of that data. The Company helps organizations, their employees, and their customers find what they need, while keeping mission-critical applications running smoothly, and protecting against cyber threats. The Company generates revenue primarily from sales of subscriptions to its platform.</v>
-    <v>2966</v>
+    <v>2886</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Keizersgracht 281, AMSTERDAM, NOORD-HOLLAND, Amsterdam NL</v>
-    <v>69.97</v>
+    <v>64.52</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.99886799766</v>
+    <v>45099.998561596876</v>
     <v>0</v>
-    <v>66.7</v>
-    <v>6667622000</v>
+    <v>62.52</v>
+    <v>6166791154</v>
     <v>Elastic NV</v>
     <v>Elastic NV</v>
-    <v>66.7</v>
-    <v>66.67</v>
-    <v>69.099999999999994</v>
-    <v>69</v>
-    <v>96492360</v>
+    <v>63.38</v>
+    <v>63.96</v>
+    <v>63.32</v>
+    <v>62.78</v>
+    <v>97390890</v>
     <v>ESTC</v>
     <v>Elastic NV (XNYS:ESTC)</v>
-    <v>1032223</v>
-    <v>901611</v>
+    <v>74</v>
+    <v>1610468</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2316,8 +2315,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2354,7 +2351,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2372,9 +2369,7 @@
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2439,8 +2434,6 @@
       <v>9</v>
       <v>4</v>
       <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
       <v>at close</v>
@@ -2449,8 +2442,6 @@
       <v>Source: Nasdaq</v>
       <v>GMT</v>
       <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2495,8 +2486,6 @@
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
     <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2505,8 +2494,6 @@
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
     <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2865,23 +2852,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G130" sqref="G130"/>
+      <selection pane="bottomRight" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="7" width="15" customWidth="1"/>
-    <col min="8" max="16" width="21" customWidth="1"/>
+    <col min="2" max="8" width="15" customWidth="1"/>
+    <col min="9" max="17" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="22" thickBot="1">
+    <row r="1" spans="1:39" ht="22" thickBot="1">
       <c r="A1" s="3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2903,23 +2890,26 @@
       <c r="G1" s="8">
         <v>2022</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="8">
+        <v>2023</v>
+      </c>
+      <c r="I1" s="28">
         <v>2024</v>
       </c>
-      <c r="I1" s="28">
+      <c r="J1" s="28">
         <v>2025</v>
       </c>
-      <c r="J1" s="28">
+      <c r="K1" s="28">
         <v>2026</v>
       </c>
-      <c r="K1" s="28">
+      <c r="L1" s="28">
         <v>2027</v>
       </c>
-      <c r="L1" s="28">
+      <c r="M1" s="28">
         <v>2028</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="21">
+    <row r="2" spans="1:39" ht="21">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2941,21 +2931,22 @@
       <c r="G2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-    </row>
-    <row r="3" spans="1:38" ht="40">
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:39" ht="40">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2977,35 +2968,36 @@
       <c r="G3" s="1">
         <v>862374000</v>
       </c>
-      <c r="H3" s="29">
-        <v>1066000000</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="29">
+        <v>1244000000</v>
+      </c>
+      <c r="J3" s="29">
         <v>1248000000</v>
       </c>
-      <c r="J3" s="29">
+      <c r="K3" s="29">
         <v>1497000000</v>
       </c>
-      <c r="K3" s="29">
+      <c r="L3" s="29">
         <v>1905000000</v>
       </c>
-      <c r="L3" s="29">
+      <c r="M3" s="29">
         <v>2385000000</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="N3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="O3" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="P3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="Q3" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="19">
+    <row r="4" spans="1:39" ht="19">
       <c r="A4" s="14" t="s">
         <v>94</v>
       </c>
@@ -3023,61 +3015,62 @@
         <v>0.5741405395854271</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:L4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:M4" si="0">(F3/E3)-1</f>
         <v>0.42296665263551758</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>0.41723843816404238</v>
       </c>
-      <c r="H4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.23612261037554472</v>
-      </c>
+      <c r="H4" s="15"/>
       <c r="I4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.1707317073170731</v>
+        <f>(I3/G3)-1</f>
+        <v>0.44252957533506354</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.19951923076923084</v>
+        <v>3.215434083601254E-3</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27254509018036077</v>
+        <v>0.19951923076923084</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
+        <v>0.27254509018036077</v>
+      </c>
+      <c r="M4" s="16">
+        <f t="shared" si="0"/>
         <v>0.25196850393700787</v>
       </c>
-      <c r="M4" s="17">
+      <c r="N4" s="17">
         <f>(G4+F4+E4)/3</f>
         <v>0.47144854346166237</v>
       </c>
-      <c r="N4" s="17">
+      <c r="O4" s="17">
         <f>(G20+F20+E20)/3</f>
         <v>0.28973754508141458</v>
       </c>
-      <c r="O4" s="17">
+      <c r="P4" s="17">
         <f>(G29+F29+E29)/3</f>
         <v>0.32775740317221819</v>
       </c>
-      <c r="P4" s="17">
+      <c r="Q4" s="17">
         <f>(G105+F105+E105)/3</f>
         <v>-0.76945372446727445</v>
       </c>
-      <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
       <c r="AF4" s="16"/>
-      <c r="AI4" s="18"/>
+      <c r="AG4" s="16"/>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="18"/>
       <c r="AL4" s="18"/>
-    </row>
-    <row r="5" spans="1:38" ht="19">
+      <c r="AM4" s="18"/>
+    </row>
+    <row r="5" spans="1:39" ht="19">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3099,8 +3092,9 @@
       <c r="G5" s="1">
         <v>232194000</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" ht="20">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:39" ht="20">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -3122,20 +3116,21 @@
       <c r="G6" s="10">
         <v>630180000</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="H6" s="63"/>
+      <c r="N6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="O6" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="P6" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="Q6" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="19">
+    <row r="7" spans="1:39" ht="19">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -3157,24 +3152,25 @@
       <c r="G7" s="2">
         <v>0.73080000000000001</v>
       </c>
-      <c r="M7" s="17">
+      <c r="H7" s="2"/>
+      <c r="N7" s="17">
         <f>G7</f>
         <v>0.73080000000000001</v>
       </c>
-      <c r="N7" s="21">
+      <c r="O7" s="21">
         <f>G21</f>
         <v>-0.1825</v>
       </c>
-      <c r="O7" s="21">
+      <c r="P7" s="21">
         <f>G30</f>
         <v>-0.2364</v>
       </c>
-      <c r="P7" s="21">
+      <c r="Q7" s="21">
         <f>G106/G3</f>
         <v>-2.0234840104177538E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="19">
+    <row r="8" spans="1:39" ht="19">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3196,9 +3192,10 @@
       <c r="G8" s="1">
         <v>273761000</v>
       </c>
-      <c r="H8" s="30"/>
-    </row>
-    <row r="9" spans="1:38" ht="19" customHeight="1">
+      <c r="H8" s="1"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="1:39" ht="19" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>95</v>
       </c>
@@ -3226,20 +3223,21 @@
         <f t="shared" si="1"/>
         <v>0.31745043333866746</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="H9" s="15"/>
+      <c r="N9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="O9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="P9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="Q9" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="19">
+    <row r="10" spans="1:39" ht="19">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -3261,24 +3259,25 @@
       <c r="G10" s="1">
         <v>123441000</v>
       </c>
-      <c r="M10" s="17">
+      <c r="H10" s="1"/>
+      <c r="N10" s="17">
         <f>G9</f>
         <v>0.31745043333866746</v>
       </c>
-      <c r="N10" s="21">
+      <c r="O10" s="21">
         <f>G13</f>
         <v>0.61469733549480854</v>
       </c>
-      <c r="O10" s="21">
+      <c r="P10" s="21">
         <f>G80</f>
         <v>0.16305222560049351</v>
       </c>
-      <c r="P10" s="21">
+      <c r="Q10" s="21">
         <f>G89</f>
         <v>2.8815803815977754E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="19">
+    <row r="11" spans="1:39" ht="19">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -3300,8 +3299,9 @@
       <c r="G11" s="1">
         <v>406658000</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" ht="20">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:39" ht="20">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -3323,20 +3323,21 @@
       <c r="G12" s="1">
         <v>530099000</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="H12" s="1"/>
+      <c r="N12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="O12" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="P12" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="Q12" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="19">
+    <row r="13" spans="1:39" ht="19">
       <c r="A13" s="14" t="s">
         <v>100</v>
       </c>
@@ -3364,24 +3365,25 @@
         <f t="shared" si="2"/>
         <v>0.61469733549480854</v>
       </c>
-      <c r="M13" s="17">
+      <c r="H13" s="15"/>
+      <c r="N13" s="17">
         <f>G28/G72</f>
         <v>-0.49068802911660847</v>
       </c>
-      <c r="N13" s="21">
+      <c r="O13" s="21">
         <f>G28/G54</f>
         <v>-0.12407581328735047</v>
       </c>
-      <c r="O13" s="21">
+      <c r="P13" s="21">
         <f>G22/(G72+G56+G61)</f>
         <v>-0.1720193254322768</v>
       </c>
-      <c r="P13" s="22">
+      <c r="Q13" s="22">
         <f>G67/G72</f>
         <v>2.9547436048652851</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="19">
+    <row r="14" spans="1:39" ht="19">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -3403,8 +3405,9 @@
       <c r="G14" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" ht="20">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:39" ht="20">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3426,20 +3429,21 @@
       <c r="G15" s="1">
         <v>803860000</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="H15" s="1"/>
+      <c r="N15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="P15" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="Q15" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="19">
+    <row r="16" spans="1:39" ht="19">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3461,24 +3465,25 @@
       <c r="G16" s="1">
         <v>1036054000</v>
       </c>
-      <c r="M16" s="31">
+      <c r="H16" s="1"/>
+      <c r="N16" s="31">
         <f>(G35+F35+E35+D35+C35)/5</f>
         <v>9.7693269804898203E-2</v>
       </c>
-      <c r="N16" s="32">
-        <f>O101/G3</f>
-        <v>7.7317057332433494</v>
-      </c>
       <c r="O16" s="32">
-        <f>O101/G28</f>
-        <v>-32.708792826027235</v>
-      </c>
-      <c r="P16" s="33">
-        <f>O101/G106</f>
-        <v>-3820.9868194842406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="19">
+        <f>P101/G3</f>
+        <v>7.1509474473952137</v>
+      </c>
+      <c r="P16" s="32">
+        <f>P101/G28</f>
+        <v>-30.251909040069069</v>
+      </c>
+      <c r="Q16" s="33">
+        <f>P101/G106</f>
+        <v>-3533.9777386819483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="19">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3500,8 +3505,9 @@
       <c r="G17" s="1">
         <v>20716000</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="20">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="20">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3523,11 +3529,12 @@
       <c r="G18" s="1">
         <v>19728000</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="H18" s="1"/>
+      <c r="N18" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19">
+    <row r="19" spans="1:14" ht="19">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3549,12 +3556,13 @@
       <c r="G19" s="10">
         <v>-157345000</v>
       </c>
-      <c r="M19" s="34">
+      <c r="H19" s="63"/>
+      <c r="N19" s="34">
         <f>G40-G56-G61</f>
         <v>266728000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19" customHeight="1">
+    <row r="20" spans="1:14" ht="19" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -3579,8 +3587,9 @@
         <f t="shared" si="3"/>
         <v>0.50602524957646189</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="19">
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" ht="19">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3602,8 +3611,9 @@
       <c r="G21" s="2">
         <v>-0.1825</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="19">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" ht="19">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3625,8 +3635,9 @@
       <c r="G22" s="10">
         <v>-173680000</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="19">
+      <c r="H22" s="63"/>
+    </row>
+    <row r="23" spans="1:14" ht="19">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3648,8 +3659,9 @@
       <c r="G23" s="2">
         <v>-0.2014</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="19">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" ht="19">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3671,8 +3683,9 @@
       <c r="G24" s="1">
         <v>-24109000</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="19">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="19">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3694,8 +3707,9 @@
       <c r="G25" s="10">
         <v>-197789000</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="19">
+      <c r="H25" s="63"/>
+    </row>
+    <row r="26" spans="1:14" ht="19">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3717,8 +3731,9 @@
       <c r="G26" s="2">
         <v>-0.22939999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="19">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" ht="19">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3740,8 +3755,9 @@
       <c r="G27" s="1">
         <v>6059000</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="20" thickBot="1">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="20" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3763,8 +3779,9 @@
       <c r="G28" s="11">
         <v>-203848000</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="20" customHeight="1" thickTop="1">
+      <c r="H28" s="63"/>
+    </row>
+    <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -3789,8 +3806,9 @@
         <f t="shared" si="4"/>
         <v>0.57491849127740768</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="19">
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" ht="19">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3812,8 +3830,9 @@
       <c r="G30" s="2">
         <v>-0.2364</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="19">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" ht="19">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3835,8 +3854,9 @@
       <c r="G31" s="12">
         <v>-2.2000000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="19">
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="19">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3858,8 +3878,9 @@
       <c r="G32" s="12">
         <v>-2.2000000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="19">
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" ht="19">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -3881,8 +3902,9 @@
       <c r="G33" s="1">
         <v>92547145</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="19">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="19">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -3904,8 +3926,9 @@
       <c r="G34" s="1">
         <v>92547145</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="20" customHeight="1">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="20" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>103</v>
       </c>
@@ -3930,8 +3953,9 @@
         <f t="shared" si="5"/>
         <v>6.1234135378940617E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="19">
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:8" ht="19">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -3953,8 +3977,9 @@
       <c r="G36" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="21">
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" ht="21">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -3976,8 +4001,9 @@
       <c r="G37" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="19">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" ht="19">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -3999,8 +4025,9 @@
       <c r="G38" s="1">
         <v>860949000</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="19">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="19">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -4022,8 +4049,9 @@
       <c r="G39" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="19">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="19">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -4045,8 +4073,9 @@
       <c r="G40" s="1">
         <v>860949000</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="19">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="19">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -4068,8 +4097,9 @@
       <c r="G41" s="1">
         <v>215228000</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="19">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="19">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -4091,8 +4121,9 @@
       <c r="G42" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="19">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="19">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -4114,8 +4145,9 @@
       <c r="G43" s="1">
         <v>87531000</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="19">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="19">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4137,8 +4169,9 @@
       <c r="G44" s="10">
         <v>1163708000</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="19">
+      <c r="H44" s="63"/>
+    </row>
+    <row r="45" spans="1:8" ht="19">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4160,8 +4193,9 @@
       <c r="G45" s="1">
         <v>32644000</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="19">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="19">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4183,8 +4217,9 @@
       <c r="G46" s="1">
         <v>303906000</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="19">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="19">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4206,8 +4241,9 @@
       <c r="G47" s="1">
         <v>45800000</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="19">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="19">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -4229,8 +4265,9 @@
       <c r="G48" s="1">
         <v>349706000</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="19">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="19">
       <c r="A49" s="5" t="s">
         <v>41</v>
       </c>
@@ -4252,8 +4289,9 @@
       <c r="G49" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="19">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="19">
       <c r="A50" s="5" t="s">
         <v>42</v>
       </c>
@@ -4275,8 +4313,9 @@
       <c r="G50" s="1">
         <v>5811000</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="19">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="19">
       <c r="A51" s="5" t="s">
         <v>43</v>
       </c>
@@ -4298,8 +4337,9 @@
       <c r="G51" s="1">
         <v>91062000</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="19">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" ht="19">
       <c r="A52" s="5" t="s">
         <v>44</v>
       </c>
@@ -4321,8 +4361,9 @@
       <c r="G52" s="1">
         <v>479223000</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="19">
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" ht="19">
       <c r="A53" s="5" t="s">
         <v>45</v>
       </c>
@@ -4344,8 +4385,9 @@
       <c r="G53" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="20" thickBot="1">
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" ht="20" thickBot="1">
       <c r="A54" s="7" t="s">
         <v>46</v>
       </c>
@@ -4367,8 +4409,9 @@
       <c r="G54" s="11">
         <v>1642931000</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="20" thickTop="1">
+      <c r="H54" s="63"/>
+    </row>
+    <row r="55" spans="1:8" ht="20" thickTop="1">
       <c r="A55" s="5" t="s">
         <v>47</v>
       </c>
@@ -4390,8 +4433,9 @@
       <c r="G55" s="1">
         <v>28403000</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="19">
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" ht="19">
       <c r="A56" s="5" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4457,9 @@
       <c r="G56" s="1">
         <v>11219000</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="19">
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" ht="19">
       <c r="A57" s="5" t="s">
         <v>49</v>
       </c>
@@ -4436,8 +4481,9 @@
       <c r="G57" s="1">
         <v>13212000</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="19">
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" ht="19">
       <c r="A58" s="5" t="s">
         <v>50</v>
       </c>
@@ -4459,8 +4505,9 @@
       <c r="G58" s="1">
         <v>431776000</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="19">
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" ht="19">
       <c r="A59" s="5" t="s">
         <v>51</v>
       </c>
@@ -4482,8 +4529,9 @@
       <c r="G59" s="1">
         <v>108720000</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="19">
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" ht="19">
       <c r="A60" s="6" t="s">
         <v>52</v>
       </c>
@@ -4505,8 +4553,9 @@
       <c r="G60" s="10">
         <v>593330000</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="19">
+      <c r="H60" s="63"/>
+    </row>
+    <row r="61" spans="1:8" ht="19">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -4528,8 +4577,9 @@
       <c r="G61" s="1">
         <v>583002000</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="19">
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" ht="19">
       <c r="A62" s="5" t="s">
         <v>50</v>
       </c>
@@ -4551,8 +4601,9 @@
       <c r="G62" s="1">
         <v>33518000</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="19">
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" ht="19">
       <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
@@ -4574,8 +4625,9 @@
       <c r="G63" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="19">
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" ht="19">
       <c r="A64" s="5" t="s">
         <v>55</v>
       </c>
@@ -4597,8 +4649,9 @@
       <c r="G64" s="1">
         <v>17648000</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" ht="19">
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:16" ht="19">
       <c r="A65" s="5" t="s">
         <v>56</v>
       </c>
@@ -4620,8 +4673,9 @@
       <c r="G65" s="1">
         <v>634168000</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" ht="19">
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:16" ht="19">
       <c r="A66" s="5" t="s">
         <v>57</v>
       </c>
@@ -4643,8 +4697,9 @@
       <c r="G66" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" ht="19">
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:16" ht="19">
       <c r="A67" s="6" t="s">
         <v>58</v>
       </c>
@@ -4666,8 +4721,9 @@
       <c r="G67" s="10">
         <v>1227498000</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" ht="19">
+      <c r="H67" s="63"/>
+    </row>
+    <row r="68" spans="1:16" ht="19">
       <c r="A68" s="5" t="s">
         <v>59</v>
       </c>
@@ -4689,8 +4745,9 @@
       <c r="G68" s="1">
         <v>990000</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" ht="19">
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:16" ht="19">
       <c r="A69" s="5" t="s">
         <v>60</v>
       </c>
@@ -4712,8 +4769,9 @@
       <c r="G69" s="1">
         <v>-817166000</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" ht="19">
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:16" ht="19">
       <c r="A70" s="5" t="s">
         <v>61</v>
       </c>
@@ -4735,8 +4793,9 @@
       <c r="G70" s="1">
         <v>-18130000</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" ht="19">
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:16" ht="19">
       <c r="A71" s="5" t="s">
         <v>62</v>
       </c>
@@ -4758,8 +4817,9 @@
       <c r="G71" s="1">
         <v>1249739000</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" ht="19">
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:16" ht="19">
       <c r="A72" s="6" t="s">
         <v>63</v>
       </c>
@@ -4781,8 +4841,9 @@
       <c r="G72" s="10">
         <v>415433000</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" ht="20" thickBot="1">
+      <c r="H72" s="63"/>
+    </row>
+    <row r="73" spans="1:16" ht="20" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>64</v>
       </c>
@@ -4804,8 +4865,9 @@
       <c r="G73" s="11">
         <v>1642931000</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" ht="20" thickTop="1">
+      <c r="H73" s="63"/>
+    </row>
+    <row r="74" spans="1:16" ht="20" thickTop="1">
       <c r="A74" s="5" t="s">
         <v>28</v>
       </c>
@@ -4827,8 +4889,9 @@
       <c r="G74" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" ht="21">
+      <c r="H74" s="13"/>
+    </row>
+    <row r="75" spans="1:16" ht="21">
       <c r="A75" s="4" t="s">
         <v>65</v>
       </c>
@@ -4850,8 +4913,9 @@
       <c r="G75" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" ht="19">
+      <c r="H75" s="9"/>
+    </row>
+    <row r="76" spans="1:16" ht="19">
       <c r="A76" s="5" t="s">
         <v>66</v>
       </c>
@@ -4873,8 +4937,9 @@
       <c r="G76" s="1">
         <v>-203848000</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" ht="19">
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:16" ht="19">
       <c r="A77" s="5" t="s">
         <v>13</v>
       </c>
@@ -4896,8 +4961,9 @@
       <c r="G77" s="1">
         <v>19728000</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" ht="19">
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:16" ht="19">
       <c r="A78" s="5" t="s">
         <v>67</v>
       </c>
@@ -4919,8 +4985,9 @@
       <c r="G78" s="1">
         <v>-2430000</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" ht="19">
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:16" ht="19">
       <c r="A79" s="5" t="s">
         <v>68</v>
       </c>
@@ -4942,8 +5009,9 @@
       <c r="G79" s="1">
         <v>140612000</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" ht="19">
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:16" ht="19">
       <c r="A80" s="14" t="s">
         <v>104</v>
       </c>
@@ -4979,8 +5047,9 @@
       <c r="M80" s="15"/>
       <c r="N80" s="15"/>
       <c r="O80" s="15"/>
-    </row>
-    <row r="81" spans="1:15" ht="19">
+      <c r="P80" s="15"/>
+    </row>
+    <row r="81" spans="1:16" ht="19">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
@@ -5002,8 +5071,9 @@
       <c r="G81" s="1">
         <v>-20649000</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" ht="19">
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:16" ht="19">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
@@ -5025,8 +5095,9 @@
       <c r="G82" s="1">
         <v>-62187000</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" ht="21">
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:16" ht="21">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -5048,12 +5119,13 @@
       <c r="G83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N83" s="65" t="s">
+      <c r="H83" s="1"/>
+      <c r="O83" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="O83" s="66"/>
-    </row>
-    <row r="84" spans="1:15" ht="19">
+      <c r="P83" s="67"/>
+    </row>
+    <row r="84" spans="1:16" ht="19">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -5075,12 +5147,13 @@
       <c r="G84" s="1">
         <v>21036000</v>
       </c>
-      <c r="N84" s="67" t="s">
+      <c r="H84" s="1"/>
+      <c r="O84" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="O84" s="68"/>
-    </row>
-    <row r="85" spans="1:15" ht="20">
+      <c r="P84" s="69"/>
+    </row>
+    <row r="85" spans="1:16" ht="20">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -5102,15 +5175,16 @@
       <c r="G85" s="1">
         <v>4800000</v>
       </c>
-      <c r="N85" s="24" t="s">
+      <c r="H85" s="1"/>
+      <c r="O85" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="O85" s="25">
+      <c r="P85" s="25">
         <f>G17</f>
         <v>20716000</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="20">
+    <row r="86" spans="1:16" ht="20">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -5132,15 +5206,16 @@
       <c r="G86" s="1">
         <v>72259000</v>
       </c>
-      <c r="N86" s="24" t="s">
+      <c r="H86" s="1"/>
+      <c r="O86" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="O86" s="25">
+      <c r="P86" s="25">
         <f>G56</f>
         <v>11219000</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="20">
+    <row r="87" spans="1:16" ht="20">
       <c r="A87" s="6" t="s">
         <v>73</v>
       </c>
@@ -5162,15 +5237,16 @@
       <c r="G87" s="10">
         <v>5672000</v>
       </c>
-      <c r="N87" s="24" t="s">
+      <c r="H87" s="63"/>
+      <c r="O87" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="O87" s="25">
+      <c r="P87" s="25">
         <f>G61</f>
         <v>583002000</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="20">
+    <row r="88" spans="1:16" ht="20">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -5192,15 +5268,16 @@
       <c r="G88" s="1">
         <v>-2485000</v>
       </c>
-      <c r="N88" s="35" t="s">
+      <c r="H88" s="1"/>
+      <c r="O88" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="O88" s="36">
-        <f>O85/(O86+O87)</f>
+      <c r="P88" s="36">
+        <f>P85/(P86+P87)</f>
         <v>3.4862450165847388E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="20" customHeight="1">
+    <row r="89" spans="1:16" ht="20" customHeight="1">
       <c r="A89" s="14" t="s">
         <v>105</v>
       </c>
@@ -5228,15 +5305,16 @@
         <f t="shared" si="7"/>
         <v>2.8815803815977754E-3</v>
       </c>
-      <c r="N89" s="24" t="s">
+      <c r="H89" s="15"/>
+      <c r="O89" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="O89" s="25">
+      <c r="P89" s="25">
         <f>G27</f>
         <v>6059000</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="20">
+    <row r="90" spans="1:16" ht="20">
       <c r="A90" s="5" t="s">
         <v>75</v>
       </c>
@@ -5258,15 +5336,16 @@
       <c r="G90" s="1">
         <v>-119854000</v>
       </c>
-      <c r="N90" s="24" t="s">
+      <c r="H90" s="1"/>
+      <c r="O90" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O90" s="25">
+      <c r="P90" s="25">
         <f>G25</f>
         <v>-197789000</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="20">
+    <row r="91" spans="1:16" ht="20">
       <c r="A91" s="5" t="s">
         <v>76</v>
       </c>
@@ -5288,15 +5367,16 @@
       <c r="G91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N91" s="35" t="s">
+      <c r="H91" s="1"/>
+      <c r="O91" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="O91" s="36">
-        <f>O89/O90</f>
+      <c r="P91" s="36">
+        <f>P89/P90</f>
         <v>-3.063365505665128E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="20">
+    <row r="92" spans="1:16" ht="20">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
@@ -5318,15 +5398,16 @@
       <c r="G92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N92" s="37" t="s">
+      <c r="H92" s="1"/>
+      <c r="O92" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="O92" s="38">
-        <f>O88*(1-O91)</f>
+      <c r="P92" s="38">
+        <f>P88*(1-P91)</f>
         <v>3.5930414438657653E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="19">
+    <row r="93" spans="1:16" ht="19">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -5348,12 +5429,13 @@
       <c r="G93" s="1">
         <v>-4932000</v>
       </c>
-      <c r="N93" s="67" t="s">
+      <c r="H93" s="1"/>
+      <c r="O93" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="O93" s="68"/>
-    </row>
-    <row r="94" spans="1:15" ht="20">
+      <c r="P93" s="69"/>
+    </row>
+    <row r="94" spans="1:16" ht="20">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -5375,14 +5457,15 @@
       <c r="G94" s="10">
         <v>-127271000</v>
       </c>
-      <c r="N94" s="24" t="s">
+      <c r="H94" s="63"/>
+      <c r="O94" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="O94" s="39">
+      <c r="P94" s="39">
         <v>4.095E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="20">
+    <row r="95" spans="1:16" ht="20">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
@@ -5404,15 +5487,16 @@
       <c r="G95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N95" s="24" t="s">
+      <c r="H95" s="1"/>
+      <c r="O95" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="O95" s="40" cm="1">
-        <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>1.0589</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="20">
+      <c r="P95" s="40" cm="1">
+        <f t="array" ref="P95">_FV(A1,"Beta")</f>
+        <v>1.0128999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="20">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
@@ -5434,14 +5518,15 @@
       <c r="G96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N96" s="24" t="s">
+      <c r="H96" s="1"/>
+      <c r="O96" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="O96" s="39">
+      <c r="P96" s="39">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="20">
+    <row r="97" spans="1:17" ht="20">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
@@ -5463,15 +5548,16 @@
       <c r="G97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N97" s="37" t="s">
+      <c r="H97" s="1"/>
+      <c r="O97" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="O97" s="38">
-        <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.6535644999999994E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="19">
+      <c r="P97" s="38">
+        <f>(P94)+((P95)*(P96-P94))</f>
+        <v>8.4555345000000004E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="19">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -5493,12 +5579,13 @@
       <c r="G98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N98" s="67" t="s">
+      <c r="H98" s="1"/>
+      <c r="O98" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="O98" s="68"/>
-    </row>
-    <row r="99" spans="1:16" ht="20">
+      <c r="P98" s="69"/>
+    </row>
+    <row r="99" spans="1:17" ht="20">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -5520,15 +5607,16 @@
       <c r="G99" s="1">
         <v>602127000</v>
       </c>
-      <c r="N99" s="24" t="s">
+      <c r="H99" s="1"/>
+      <c r="O99" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="O99" s="25">
-        <f>O86+O87</f>
+      <c r="P99" s="25">
+        <f>P86+P87</f>
         <v>594221000</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="20">
+    <row r="100" spans="1:17" ht="20">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
@@ -5550,15 +5638,16 @@
       <c r="G100" s="10">
         <v>602127000</v>
       </c>
-      <c r="N100" s="35" t="s">
+      <c r="H100" s="63"/>
+      <c r="O100" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O100" s="36">
-        <f>O99/O103</f>
-        <v>8.1827850037518024E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" ht="20">
+      <c r="P100" s="36">
+        <f>P99/P103</f>
+        <v>8.7889355390145626E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="20">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
@@ -5580,15 +5669,16 @@
       <c r="G101" s="1">
         <v>-20599000</v>
       </c>
-      <c r="N101" s="24" t="s">
+      <c r="H101" s="1"/>
+      <c r="O101" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="O101" s="41" cm="1">
-        <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6667622000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" ht="20">
+      <c r="P101" s="41" cm="1">
+        <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
+        <v>6166791154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="20">
       <c r="A102" s="6" t="s">
         <v>87</v>
       </c>
@@ -5610,15 +5700,16 @@
       <c r="G102" s="10">
         <v>459929000</v>
       </c>
-      <c r="N102" s="35" t="s">
+      <c r="H102" s="63"/>
+      <c r="O102" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="O102" s="36">
-        <f>O101/O103</f>
-        <v>0.91817214996248198</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" ht="20">
+      <c r="P102" s="36">
+        <f>P101/P103</f>
+        <v>0.91211064460985436</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="20">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
@@ -5640,15 +5731,16 @@
       <c r="G103" s="1">
         <v>403708000</v>
       </c>
-      <c r="N103" s="37" t="s">
+      <c r="H103" s="1"/>
+      <c r="O103" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="O103" s="42">
-        <f>O99+O101</f>
-        <v>7261843000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" ht="20" thickBot="1">
+      <c r="P103" s="42">
+        <f>P99+P101</f>
+        <v>6761012154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="20" thickBot="1">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -5670,12 +5762,13 @@
       <c r="G104" s="11">
         <v>863637000</v>
       </c>
-      <c r="N104" s="67" t="s">
+      <c r="H104" s="63"/>
+      <c r="O104" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="O104" s="68"/>
-    </row>
-    <row r="105" spans="1:16" ht="21" thickTop="1">
+      <c r="P104" s="69"/>
+    </row>
+    <row r="105" spans="1:17" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
         <v>107</v>
       </c>
@@ -5700,32 +5793,33 @@
         <f>(G106/F106)-1</f>
         <v>-1.0952718934265124</v>
       </c>
-      <c r="H105" s="61">
+      <c r="H105" s="15"/>
+      <c r="I105" s="61">
         <v>-83258000</v>
       </c>
-      <c r="I105" s="61">
+      <c r="J105" s="61">
         <v>26371000</v>
       </c>
-      <c r="J105" s="61">
+      <c r="K105" s="61">
         <v>20038000</v>
-      </c>
-      <c r="K105" s="61">
-        <v>221500000</v>
       </c>
       <c r="L105" s="61">
         <v>221500000</v>
       </c>
-      <c r="M105" s="15"/>
-      <c r="N105" s="26" t="s">
+      <c r="M105" s="61">
+        <v>221500000</v>
+      </c>
+      <c r="N105" s="15"/>
+      <c r="O105" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="O105" s="27">
-        <f>(O100*O92)+(O102*O97)</f>
-        <v>8.2394727782512459E-2</v>
-      </c>
-      <c r="P105" s="15"/>
-    </row>
-    <row r="106" spans="1:16" ht="19">
+      <c r="P105" s="27">
+        <f>(P100*P92)+(P102*P97)</f>
+        <v>8.0281731197073034E-2</v>
+      </c>
+      <c r="Q105" s="15"/>
+    </row>
+    <row r="106" spans="1:17" ht="19">
       <c r="A106" s="5" t="s">
         <v>90</v>
       </c>
@@ -5747,38 +5841,39 @@
       <c r="G106" s="1">
         <v>-1745000</v>
       </c>
-      <c r="H106" s="43">
-        <f>G106*(1+$O$106)</f>
-        <v>-2139679.6127601471</v>
-      </c>
+      <c r="H106" s="1"/>
       <c r="I106" s="43">
-        <f t="shared" ref="I106:L106" si="8">H106*(1+$O$106)</f>
-        <v>-2623626.8454220132</v>
+        <f>G106*(1+$P$106)</f>
+        <v>-2153252.4641725374</v>
       </c>
       <c r="J106" s="43">
-        <f t="shared" si="8"/>
-        <v>-3217032.0187046989</v>
+        <f t="shared" ref="J106:M106" si="8">I106*(1+$P$106)</f>
+        <v>-2657017.8650229825</v>
       </c>
       <c r="K106" s="43">
         <f t="shared" si="8"/>
-        <v>-3944652.0481484607</v>
+        <v>-3278641.9857943789</v>
       </c>
       <c r="L106" s="43">
         <f t="shared" si="8"/>
-        <v>-4836843.3047884349</v>
-      </c>
-      <c r="M106" s="44" t="s">
+        <v>-4045698.5301153511</v>
+      </c>
+      <c r="M106" s="43">
+        <f t="shared" si="8"/>
+        <v>-4992212.2230774164</v>
+      </c>
+      <c r="N106" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="N106" s="45" t="s">
+      <c r="O106" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="O106" s="46">
-        <f>(SUM(H4:L4)/5)</f>
-        <v>0.22617742851584346</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" ht="19">
+      <c r="P106" s="46">
+        <f>(SUM(I4:M4)/5)</f>
+        <v>0.23395556686105284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="19">
       <c r="A107" s="5"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -5786,151 +5881,152 @@
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
-      <c r="H107" s="44"/>
+      <c r="H107" s="13"/>
       <c r="I107" s="44"/>
       <c r="J107" s="44"/>
       <c r="K107" s="44"/>
-      <c r="L107" s="62">
-        <f>L105*(1+O107)/(O108-O107)</f>
-        <v>3955720477.677321</v>
-      </c>
-      <c r="M107" s="48" t="s">
+      <c r="L107" s="44"/>
+      <c r="M107" s="62">
+        <f>M105*(1+P107)/(P108-P107)</f>
+        <v>4106917332.0682979</v>
+      </c>
+      <c r="N107" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="N107" s="49" t="s">
+      <c r="O107" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="O107" s="50">
+      <c r="P107" s="50">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="19">
-      <c r="H108" s="47">
-        <f t="shared" ref="H108:J108" si="9">H107+H106</f>
-        <v>-2139679.6127601471</v>
-      </c>
+    <row r="108" spans="1:17" ht="19">
       <c r="I108" s="47">
-        <f t="shared" si="9"/>
-        <v>-2623626.8454220132</v>
+        <f t="shared" ref="I108:K108" si="9">I107+I106</f>
+        <v>-2153252.4641725374</v>
       </c>
       <c r="J108" s="47">
         <f t="shared" si="9"/>
-        <v>-3217032.0187046989</v>
+        <v>-2657017.8650229825</v>
       </c>
       <c r="K108" s="47">
-        <f>K107+K106</f>
-        <v>-3944652.0481484607</v>
-      </c>
-      <c r="L108" s="62">
-        <f>L107+L105</f>
-        <v>4177220477.677321</v>
-      </c>
-      <c r="M108" s="48" t="s">
+        <f t="shared" si="9"/>
+        <v>-3278641.9857943789</v>
+      </c>
+      <c r="L108" s="47">
+        <f>L107+L106</f>
+        <v>-4045698.5301153511</v>
+      </c>
+      <c r="M108" s="62">
+        <f>M107+M105</f>
+        <v>4328417332.0682983</v>
+      </c>
+      <c r="N108" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="N108" s="51" t="s">
+      <c r="O108" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="O108" s="52">
-        <f>O105</f>
-        <v>8.2394727782512459E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" ht="19">
-      <c r="H109" s="63" t="s">
+      <c r="P108" s="52">
+        <f>P105</f>
+        <v>8.0281731197073034E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="19">
+      <c r="I109" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="I109" s="64"/>
-    </row>
-    <row r="110" spans="1:16" ht="20">
-      <c r="H110" s="53" t="s">
+      <c r="J109" s="65"/>
+    </row>
+    <row r="110" spans="1:17" ht="20">
+      <c r="I110" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="I110" s="41">
-        <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>2802008823.5336099</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" ht="20">
-      <c r="H111" s="53" t="s">
+      <c r="J110" s="41">
+        <f>NPV(P108,I108,J108,K108,L108,M108)</f>
+        <v>2932167535.5551243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="20">
+      <c r="I111" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="I111" s="41">
+      <c r="J111" s="41">
         <f>G40</f>
         <v>860949000</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="20">
-      <c r="H112" s="53" t="s">
+    <row r="112" spans="1:17" ht="20">
+      <c r="I112" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="I112" s="41">
-        <f>O99</f>
+      <c r="J112" s="41">
+        <f>P99</f>
         <v>594221000</v>
       </c>
     </row>
-    <row r="113" spans="8:9" ht="20">
-      <c r="H113" s="53" t="s">
+    <row r="113" spans="9:10" ht="20">
+      <c r="I113" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="I113" s="41">
-        <f>I110+I111-I112</f>
-        <v>3068736823.5336099</v>
-      </c>
-    </row>
-    <row r="114" spans="8:9" ht="20">
-      <c r="H114" s="53" t="s">
+      <c r="J113" s="41">
+        <f>J110+J111-J112</f>
+        <v>3198895535.5551243</v>
+      </c>
+    </row>
+    <row r="114" spans="9:10" ht="20">
+      <c r="I114" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="I114" s="54" cm="1">
-        <f t="array" ref="I114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>96492360</v>
-      </c>
-    </row>
-    <row r="115" spans="8:9" ht="20">
-      <c r="H115" s="55" t="s">
+      <c r="J114" s="54">
+        <f>G34*(1+(5*0.05))</f>
+        <v>115683931.25</v>
+      </c>
+    </row>
+    <row r="115" spans="9:10" ht="20">
+      <c r="I115" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="I115" s="56">
-        <f>I113/I114</f>
-        <v>31.8028994578805</v>
-      </c>
-    </row>
-    <row r="116" spans="8:9" ht="20">
-      <c r="H116" s="53" t="s">
+      <c r="J115" s="56">
+        <f>J113/J114</f>
+        <v>27.652029983681285</v>
+      </c>
+    </row>
+    <row r="116" spans="9:10" ht="20">
+      <c r="I116" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="I116" s="57" cm="1">
-        <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>69.099999999999994</v>
-      </c>
-    </row>
-    <row r="117" spans="8:9" ht="20">
-      <c r="H117" s="58" t="s">
+      <c r="J116" s="57" cm="1">
+        <f t="array" ref="J116">_FV(A1,"Price")</f>
+        <v>63.32</v>
+      </c>
+    </row>
+    <row r="117" spans="9:10" ht="20">
+      <c r="I117" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="I117" s="59">
-        <f>I115/I116-1</f>
-        <v>-0.53975543476294496</v>
-      </c>
-    </row>
-    <row r="118" spans="8:9" ht="20">
-      <c r="H118" s="58" t="s">
+      <c r="J117" s="59">
+        <f>J115/J116-1</f>
+        <v>-0.56329706279720015</v>
+      </c>
+    </row>
+    <row r="118" spans="9:10" ht="20">
+      <c r="I118" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="I118" s="60" t="str">
-        <f>IF(I115&gt;I116,"BUY","SELL")</f>
+      <c r="J118" s="60" t="str">
+        <f>IF(J115&gt;J116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="O104:P104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ESTC" display="ROIC.AI | ESTC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5946,7 +6042,7 @@
     <hyperlink ref="F74" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1707753/000170775321000026/0001707753-21-000026-index.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G36" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1707753/000170775322000025/0001707753-22-000025-index.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="G74" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1707753/000170775322000025/0001707753-22-000025-index.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H1" r:id="rId14" display="https://finbox.com/NYSE:ESTC/explorer/revenue_proj" xr:uid="{059F6893-8E61-ED47-A875-B12979FC0C0A}"/>
+    <hyperlink ref="I1" r:id="rId14" display="https://finbox.com/NYSE:ESTC/explorer/revenue_proj" xr:uid="{059F6893-8E61-ED47-A875-B12979FC0C0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId15"/>

--- a/Technology/Software/Elastic N.V.xlsx
+++ b/Technology/Software/Elastic N.V.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC6ECF4-9E28-4943-87FB-DF89E8FCD865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A1BE36-298C-184B-A3D7-B1D19AD5F04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +547,47 @@
   </si>
   <si>
     <t>Shares (5% dilution)</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -943,100 +925,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="17" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1089,7 +1064,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ESTC</a:t>
+              <a:t>Elastic</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1099,8 +1074,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.46033112582781455"/>
-          <c:y val="2.3536336396887125E-2"/>
+          <c:x val="0.44973509933774836"/>
+          <c:y val="2.6913249806489972E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1137,9 +1112,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.2556291390728481E-2"/>
-          <c:y val="0.11657547417378195"/>
+          <c:y val="0.15709903272905379"/>
           <c:w val="0.87241059602649007"/>
-          <c:h val="0.78017006207662398"/>
+          <c:h val="0.7126308934805401"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1311,11 +1286,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1355,7 +1330,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$G$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$G$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2097,16 +2072,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2132,6 +2107,58 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2256,9 +2283,9 @@
     <v>Powered by Refinitiv</v>
     <v>91.3</v>
     <v>46.18</v>
-    <v>1.0128999999999999</v>
-    <v>-0.64</v>
-    <v>-1.0005999999999999E-2</v>
+    <v>0.98460000000000003</v>
+    <v>1.68</v>
+    <v>2.682E-2</v>
     <v>USD</v>
     <v>Elastic NV is a Netherlands-based data analytics company. The Company’s platform, which is available as both a hosted, managed service across public clouds as well as self-managed software, allows its customers to find insights from large amounts of data and take action. The Company offers three search-powered solutions - Enterprise Search, Observability, and Security - that are built into the platform, which is built on the Elastic Stack, a set of software products that ingest data from any source, in any format, and perform search, analysis, and visualization of that data. The Company helps organizations, their employees, and their customers find what they need, while keeping mission-critical applications running smoothly, and protecting against cyber threats. The Company generates revenue primarily from sales of subscriptions to its platform.</v>
     <v>2886</v>
@@ -2266,24 +2293,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Keizersgracht 281, AMSTERDAM, NOORD-HOLLAND, Amsterdam NL</v>
-    <v>64.52</v>
+    <v>65.239999999999995</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.998561596876</v>
+    <v>45114.958333367969</v>
     <v>0</v>
-    <v>62.52</v>
-    <v>6166791154</v>
+    <v>62.67</v>
+    <v>6264182000</v>
     <v>Elastic NV</v>
     <v>Elastic NV</v>
-    <v>63.38</v>
-    <v>63.96</v>
-    <v>63.32</v>
-    <v>62.78</v>
+    <v>62.94</v>
+    <v>62.64</v>
+    <v>64.319999999999993</v>
     <v>97390890</v>
     <v>ESTC</v>
     <v>Elastic NV (XNYS:ESTC)</v>
-    <v>74</v>
-    <v>1610468</v>
+    <v>100</v>
+    <v>1534331</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2334,7 +2360,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2351,7 +2376,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2362,7 +2387,6 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
@@ -2433,15 +2457,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2485,7 +2507,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2493,7 +2514,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2852,23 +2872,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM118"/>
+  <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H109" sqref="H109"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="8" width="15" customWidth="1"/>
-    <col min="9" max="17" width="21" customWidth="1"/>
+    <col min="2" max="7" width="15" customWidth="1"/>
+    <col min="8" max="16" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="22" thickBot="1">
+    <row r="1" spans="1:38" ht="22" thickBot="1">
       <c r="A1" s="3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2890,63 +2910,59 @@
       <c r="G1" s="8">
         <v>2022</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="24">
         <v>2023</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="24">
         <v>2024</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="24">
         <v>2025</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="24">
         <v>2026</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="24">
         <v>2027</v>
       </c>
-      <c r="M1" s="28">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" ht="21">
+    </row>
+    <row r="2" spans="1:38" ht="21">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:39" ht="40">
+    </row>
+    <row r="3" spans="1:38" ht="40">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2968,23 +2984,25 @@
       <c r="G3" s="1">
         <v>862374000</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="29">
+      <c r="H3" s="25">
+        <v>1069000000</v>
+      </c>
+      <c r="I3" s="25">
         <v>1244000000</v>
       </c>
-      <c r="J3" s="29">
-        <v>1248000000</v>
-      </c>
-      <c r="K3" s="29">
-        <v>1497000000</v>
-      </c>
-      <c r="L3" s="29">
-        <v>1905000000</v>
-      </c>
-      <c r="M3" s="29">
-        <v>2385000000</v>
-      </c>
-      <c r="N3" s="19" t="s">
+      <c r="J3" s="25">
+        <v>1480000000</v>
+      </c>
+      <c r="K3" s="25">
+        <v>1846000000</v>
+      </c>
+      <c r="L3" s="25">
+        <v>2187000000</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>109</v>
       </c>
       <c r="O3" s="20" t="s">
@@ -2993,13 +3011,10 @@
       <c r="P3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" ht="19">
+    </row>
+    <row r="4" spans="1:38" ht="19">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3015,62 +3030,61 @@
         <v>0.5741405395854271</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:M4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:L4" si="0">(F3/E3)-1</f>
         <v>0.42296665263551758</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>0.41723843816404238</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="16">
+        <f>(H3/G3)-1</f>
+        <v>0.23960137944789617</v>
+      </c>
       <c r="I4" s="16">
-        <f>(I3/G3)-1</f>
-        <v>0.44252957533506354</v>
+        <f t="shared" si="0"/>
+        <v>0.1637043966323668</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>3.215434083601254E-3</v>
+        <v>0.18971061093247599</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.19951923076923084</v>
+        <v>0.24729729729729732</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27254509018036077</v>
-      </c>
-      <c r="M4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.25196850393700787</v>
-      </c>
-      <c r="N4" s="17">
+        <v>0.18472372697724815</v>
+      </c>
+      <c r="M4" s="17">
         <f>(G4+F4+E4)/3</f>
         <v>0.47144854346166237</v>
       </c>
-      <c r="O4" s="17">
+      <c r="N4" s="17">
         <f>(G20+F20+E20)/3</f>
         <v>0.28973754508141458</v>
       </c>
-      <c r="P4" s="17">
+      <c r="O4" s="17">
         <f>(G29+F29+E29)/3</f>
         <v>0.32775740317221819</v>
       </c>
-      <c r="Q4" s="17">
-        <f>(G105+F105+E105)/3</f>
+      <c r="P4" s="17">
+        <f>(G106+F106+E106)/3</f>
         <v>-0.76945372446727445</v>
       </c>
+      <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
       <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
+      <c r="AI4" s="18"/>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="18"/>
       <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-    </row>
-    <row r="5" spans="1:39" ht="19">
+    </row>
+    <row r="5" spans="1:38" ht="19">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3092,9 +3106,8 @@
       <c r="G5" s="1">
         <v>232194000</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:39" ht="20">
+    </row>
+    <row r="6" spans="1:38" ht="20">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -3116,8 +3129,10 @@
       <c r="G6" s="10">
         <v>630180000</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="N6" s="19" t="s">
+      <c r="M6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="20" t="s">
         <v>113</v>
       </c>
       <c r="O6" s="20" t="s">
@@ -3126,11 +3141,8 @@
       <c r="P6" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="Q6" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" ht="19">
+    </row>
+    <row r="7" spans="1:38" ht="19">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -3152,25 +3164,24 @@
       <c r="G7" s="2">
         <v>0.73080000000000001</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="N7" s="17">
+      <c r="M7" s="17">
         <f>G7</f>
         <v>0.73080000000000001</v>
       </c>
-      <c r="O7" s="21">
+      <c r="N7" s="21">
         <f>G21</f>
         <v>-0.1825</v>
       </c>
-      <c r="P7" s="21">
+      <c r="O7" s="21">
         <f>G30</f>
         <v>-0.2364</v>
       </c>
-      <c r="Q7" s="21">
-        <f>G106/G3</f>
+      <c r="P7" s="21">
+        <f>G107/G3</f>
         <v>-2.0234840104177538E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="19">
+    <row r="8" spans="1:38" ht="19">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3192,12 +3203,11 @@
       <c r="G8" s="1">
         <v>273761000</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="1:39" ht="19" customHeight="1">
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:38" ht="19" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3223,8 +3233,10 @@
         <f t="shared" si="1"/>
         <v>0.31745043333866746</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="N9" s="19" t="s">
+      <c r="M9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="20" t="s">
         <v>96</v>
       </c>
       <c r="O9" s="20" t="s">
@@ -3233,11 +3245,8 @@
       <c r="P9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="Q9" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="19">
+    </row>
+    <row r="10" spans="1:38" ht="19">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -3259,25 +3268,24 @@
       <c r="G10" s="1">
         <v>123441000</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="N10" s="17">
+      <c r="M10" s="17">
         <f>G9</f>
         <v>0.31745043333866746</v>
       </c>
-      <c r="O10" s="21">
+      <c r="N10" s="21">
         <f>G13</f>
         <v>0.61469733549480854</v>
       </c>
-      <c r="P10" s="21">
+      <c r="O10" s="21">
         <f>G80</f>
         <v>0.16305222560049351</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="P10" s="21">
         <f>G89</f>
         <v>2.8815803815977754E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="19">
+    <row r="11" spans="1:38" ht="19">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -3299,9 +3307,8 @@
       <c r="G11" s="1">
         <v>406658000</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:39" ht="20">
+    </row>
+    <row r="12" spans="1:38" ht="20">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -3323,8 +3330,10 @@
       <c r="G12" s="1">
         <v>530099000</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="N12" s="19" t="s">
+      <c r="M12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>117</v>
       </c>
       <c r="O12" s="20" t="s">
@@ -3333,13 +3342,10 @@
       <c r="P12" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="Q12" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" ht="19">
+    </row>
+    <row r="13" spans="1:38" ht="19">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3365,49 +3371,47 @@
         <f t="shared" si="2"/>
         <v>0.61469733549480854</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="N13" s="17">
+      <c r="M13" s="17">
         <f>G28/G72</f>
         <v>-0.49068802911660847</v>
       </c>
-      <c r="O13" s="21">
+      <c r="N13" s="21">
         <f>G28/G54</f>
         <v>-0.12407581328735047</v>
       </c>
-      <c r="P13" s="21">
+      <c r="O13" s="21">
         <f>G22/(G72+G56+G61)</f>
         <v>-0.1720193254322768</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="P13" s="22">
         <f>G67/G72</f>
         <v>2.9547436048652851</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="19">
+    <row r="14" spans="1:38" ht="19">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:39" ht="20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="20">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3429,8 +3433,10 @@
       <c r="G15" s="1">
         <v>803860000</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="N15" s="19" t="s">
+      <c r="M15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="20" t="s">
         <v>121</v>
       </c>
       <c r="O15" s="20" t="s">
@@ -3439,11 +3445,8 @@
       <c r="P15" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="Q15" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" ht="19">
+    </row>
+    <row r="16" spans="1:38" ht="19">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3465,49 +3468,47 @@
       <c r="G16" s="1">
         <v>1036054000</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="N16" s="31">
+      <c r="M16" s="27">
         <f>(G35+F35+E35+D35+C35)/5</f>
         <v>9.7693269804898203E-2</v>
       </c>
-      <c r="O16" s="32">
-        <f>P101/G3</f>
-        <v>7.1509474473952137</v>
-      </c>
-      <c r="P16" s="32">
-        <f>P101/G28</f>
-        <v>-30.251909040069069</v>
-      </c>
-      <c r="Q16" s="33">
-        <f>P101/G106</f>
-        <v>-3533.9777386819483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="19">
+      <c r="N16" s="35">
+        <f>O101/G3</f>
+        <v>7.2638808683935272</v>
+      </c>
+      <c r="O16" s="35">
+        <f>O101/G28</f>
+        <v>-30.729671127506769</v>
+      </c>
+      <c r="P16" s="36">
+        <f>O101/G107</f>
+        <v>-3589.7891117478512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="19">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1">
         <v>20716000</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" ht="20">
+    </row>
+    <row r="18" spans="1:16" ht="20">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3529,12 +3530,20 @@
       <c r="G18" s="1">
         <v>19728000</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="N18" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="19">
+      <c r="M18" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="19">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3556,15 +3565,41 @@
       <c r="G19" s="10">
         <v>-157345000</v>
       </c>
-      <c r="H19" s="63"/>
-      <c r="N19" s="34">
+      <c r="H19" s="39">
+        <v>-161700000</v>
+      </c>
+      <c r="I19" s="39">
+        <v>134700000</v>
+      </c>
+      <c r="J19" s="39">
+        <v>187400000</v>
+      </c>
+      <c r="K19" s="39">
+        <v>302500000</v>
+      </c>
+      <c r="L19" s="39">
+        <v>413300000</v>
+      </c>
+      <c r="M19" s="28">
         <f>G40-G56-G61</f>
         <v>266728000</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="19" customHeight="1">
+      <c r="N19" s="35">
+        <f>O101/H3</f>
+        <v>5.8598521983161831</v>
+      </c>
+      <c r="O19" s="35">
+        <f>O101/H28</f>
+        <v>-26.520668924640134</v>
+      </c>
+      <c r="P19" s="36">
+        <f>O101/H105</f>
+        <v>-36.518854986271222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="19" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3580,16 +3615,35 @@
         <v>0.69467577531988733</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:G20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:L20" si="3">(F19/E19)-1</f>
         <v>-0.33148838965210548</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="3"/>
         <v>0.50602524957646189</v>
       </c>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" ht="19">
+      <c r="H20" s="16">
+        <f t="shared" si="3"/>
+        <v>2.7678032349296222E-2</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.8330241187384044</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.39123979213066074</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.61419423692636066</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.36628099173553719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="20">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3611,9 +3665,34 @@
       <c r="G21" s="2">
         <v>-0.1825</v>
       </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="19">
+      <c r="H21" s="40">
+        <f>H19/H3</f>
+        <v>-0.15126286248830684</v>
+      </c>
+      <c r="I21" s="40">
+        <f t="shared" ref="I21:L21" si="4">I19/I3</f>
+        <v>0.10827974276527332</v>
+      </c>
+      <c r="J21" s="40">
+        <f t="shared" si="4"/>
+        <v>0.12662162162162163</v>
+      </c>
+      <c r="K21" s="40">
+        <f t="shared" si="4"/>
+        <v>0.16386782231852653</v>
+      </c>
+      <c r="L21" s="40">
+        <f t="shared" si="4"/>
+        <v>0.18898033836305442</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="19">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3635,9 +3714,16 @@
       <c r="G22" s="10">
         <v>-173680000</v>
       </c>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" spans="1:14" ht="19">
+      <c r="O22" s="37">
+        <f>(-1*G98)/O101</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="38">
+        <f>G107/O101</f>
+        <v>-2.7856789601579267E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="19">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3659,9 +3745,8 @@
       <c r="G23" s="2">
         <v>-0.2014</v>
       </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="19">
+    </row>
+    <row r="24" spans="1:16" ht="19">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3683,9 +3768,8 @@
       <c r="G24" s="1">
         <v>-24109000</v>
       </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="19">
+    </row>
+    <row r="25" spans="1:16" ht="19">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3707,9 +3791,8 @@
       <c r="G25" s="10">
         <v>-197789000</v>
       </c>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="1:14" ht="19">
+    </row>
+    <row r="26" spans="1:16" ht="19">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3731,9 +3814,8 @@
       <c r="G26" s="2">
         <v>-0.22939999999999999</v>
       </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="19">
+    </row>
+    <row r="27" spans="1:16" ht="19">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3755,9 +3837,8 @@
       <c r="G27" s="1">
         <v>6059000</v>
       </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" ht="20" thickBot="1">
+    </row>
+    <row r="28" spans="1:16" ht="20" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3779,11 +3860,25 @@
       <c r="G28" s="11">
         <v>-203848000</v>
       </c>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1">
+      <c r="H28" s="41">
+        <v>-236200000</v>
+      </c>
+      <c r="I28" s="41">
+        <v>102700000</v>
+      </c>
+      <c r="J28" s="41">
+        <v>152700000</v>
+      </c>
+      <c r="K28" s="41">
+        <v>238500000</v>
+      </c>
+      <c r="L28" s="41">
+        <v>161700000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="20" customHeight="1" thickTop="1">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3799,16 +3894,35 @@
         <v>0.63410652669032186</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:G29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:L29" si="5">(F28/E28)-1</f>
         <v>-0.22575280845107493</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57491849127740768</v>
       </c>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="1:14" ht="19">
+      <c r="H29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.15870648718653113</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="5"/>
+        <v>-1.4348010160880609</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.48685491723466412</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.56188605108055012</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" si="5"/>
+        <v>-0.32201257861635224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="19">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3830,9 +3944,28 @@
       <c r="G30" s="2">
         <v>-0.2364</v>
       </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" ht="19">
+      <c r="H30" s="42">
+        <f>H28/H3</f>
+        <v>-0.22095416276894295</v>
+      </c>
+      <c r="I30" s="42">
+        <f t="shared" ref="I30:L30" si="6">I28/I3</f>
+        <v>8.2556270096463019E-2</v>
+      </c>
+      <c r="J30" s="42">
+        <f t="shared" si="6"/>
+        <v>0.10317567567567568</v>
+      </c>
+      <c r="K30" s="42">
+        <f t="shared" si="6"/>
+        <v>0.1291982665222102</v>
+      </c>
+      <c r="L30" s="42">
+        <f t="shared" si="6"/>
+        <v>7.3936899862825783E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="19">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3854,9 +3987,23 @@
       <c r="G31" s="12">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" ht="19">
+      <c r="H31" s="43">
+        <v>-2.23</v>
+      </c>
+      <c r="I31" s="43">
+        <v>1.05</v>
+      </c>
+      <c r="J31" s="43">
+        <v>1.57</v>
+      </c>
+      <c r="K31" s="43">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L31" s="43">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="19">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3878,9 +4025,8 @@
       <c r="G32" s="12">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" ht="19">
+    </row>
+    <row r="33" spans="1:7" ht="19">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -3902,9 +4048,8 @@
       <c r="G33" s="1">
         <v>92547145</v>
       </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="19">
+    </row>
+    <row r="34" spans="1:7" ht="19">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -3926,11 +4071,10 @@
       <c r="G34" s="1">
         <v>92547145</v>
       </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="20" customHeight="1">
+    </row>
+    <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -3938,72 +4082,69 @@
         <v>-1.5252053659871246E-2</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:G35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:G35" si="7">(D34-C34)/C34</f>
         <v>-9.9714091052835005E-2</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.43550558432699471</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10669277403126193</v>
       </c>
       <c r="G35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.1234135378940617E-2</v>
       </c>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="1:8" ht="19">
+    </row>
+    <row r="36" spans="1:7" ht="19">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" ht="21">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="21">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="1:8" ht="19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -4025,9 +4166,8 @@
       <c r="G38" s="1">
         <v>860949000</v>
       </c>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="19">
+    </row>
+    <row r="39" spans="1:7" ht="19">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -4035,23 +4175,22 @@
         <v>15000000</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -4073,9 +4212,8 @@
       <c r="G40" s="1">
         <v>860949000</v>
       </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="19">
+    </row>
+    <row r="41" spans="1:7" ht="19">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -4097,33 +4235,31 @@
       <c r="G41" s="1">
         <v>215228000</v>
       </c>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="19">
+    </row>
+    <row r="42" spans="1:7" ht="19">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="19">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -4145,9 +4281,8 @@
       <c r="G43" s="1">
         <v>87531000</v>
       </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" ht="19">
+    </row>
+    <row r="44" spans="1:7" ht="19">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4169,9 +4304,8 @@
       <c r="G44" s="10">
         <v>1163708000</v>
       </c>
-      <c r="H44" s="63"/>
-    </row>
-    <row r="45" spans="1:8" ht="19">
+    </row>
+    <row r="45" spans="1:7" ht="19">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4193,9 +4327,8 @@
       <c r="G45" s="1">
         <v>32644000</v>
       </c>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" ht="19">
+    </row>
+    <row r="46" spans="1:7" ht="19">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4217,9 +4350,8 @@
       <c r="G46" s="1">
         <v>303906000</v>
       </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" ht="19">
+    </row>
+    <row r="47" spans="1:7" ht="19">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4241,9 +4373,8 @@
       <c r="G47" s="1">
         <v>45800000</v>
       </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" ht="19">
+    </row>
+    <row r="48" spans="1:7" ht="19">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -4265,33 +4396,31 @@
       <c r="G48" s="1">
         <v>349706000</v>
       </c>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" ht="19">
+    </row>
+    <row r="49" spans="1:7" ht="19">
       <c r="A49" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" ht="19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="19">
       <c r="A50" s="5" t="s">
         <v>42</v>
       </c>
@@ -4313,9 +4442,8 @@
       <c r="G50" s="1">
         <v>5811000</v>
       </c>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" ht="19">
+    </row>
+    <row r="51" spans="1:7" ht="19">
       <c r="A51" s="5" t="s">
         <v>43</v>
       </c>
@@ -4337,9 +4465,8 @@
       <c r="G51" s="1">
         <v>91062000</v>
       </c>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" ht="19">
+    </row>
+    <row r="52" spans="1:7" ht="19">
       <c r="A52" s="5" t="s">
         <v>44</v>
       </c>
@@ -4361,33 +4488,31 @@
       <c r="G52" s="1">
         <v>479223000</v>
       </c>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" ht="19">
+    </row>
+    <row r="53" spans="1:7" ht="19">
       <c r="A53" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" ht="20" thickBot="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="20" thickBot="1">
       <c r="A54" s="7" t="s">
         <v>46</v>
       </c>
@@ -4409,9 +4534,8 @@
       <c r="G54" s="11">
         <v>1642931000</v>
       </c>
-      <c r="H54" s="63"/>
-    </row>
-    <row r="55" spans="1:8" ht="20" thickTop="1">
+    </row>
+    <row r="55" spans="1:7" ht="20" thickTop="1">
       <c r="A55" s="5" t="s">
         <v>47</v>
       </c>
@@ -4433,20 +4557,19 @@
       <c r="G55" s="1">
         <v>28403000</v>
       </c>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" ht="19">
+    </row>
+    <row r="56" spans="1:7" ht="19">
       <c r="A56" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>7639000</v>
@@ -4457,9 +4580,8 @@
       <c r="G56" s="1">
         <v>11219000</v>
       </c>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" ht="19">
+    </row>
+    <row r="57" spans="1:7" ht="19">
       <c r="A57" s="5" t="s">
         <v>49</v>
       </c>
@@ -4481,9 +4603,8 @@
       <c r="G57" s="1">
         <v>13212000</v>
       </c>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" ht="19">
+    </row>
+    <row r="58" spans="1:7" ht="19">
       <c r="A58" s="5" t="s">
         <v>50</v>
       </c>
@@ -4505,9 +4626,8 @@
       <c r="G58" s="1">
         <v>431776000</v>
       </c>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" ht="19">
+    </row>
+    <row r="59" spans="1:7" ht="19">
       <c r="A59" s="5" t="s">
         <v>51</v>
       </c>
@@ -4529,9 +4649,8 @@
       <c r="G59" s="1">
         <v>108720000</v>
       </c>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" ht="19">
+    </row>
+    <row r="60" spans="1:7" ht="19">
       <c r="A60" s="6" t="s">
         <v>52</v>
       </c>
@@ -4553,23 +4672,22 @@
       <c r="G60" s="10">
         <v>593330000</v>
       </c>
-      <c r="H60" s="63"/>
-    </row>
-    <row r="61" spans="1:8" ht="19">
+    </row>
+    <row r="61" spans="1:7" ht="19">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1">
         <v>19649000</v>
@@ -4577,9 +4695,8 @@
       <c r="G61" s="1">
         <v>583002000</v>
       </c>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" ht="19">
+    </row>
+    <row r="62" spans="1:7" ht="19">
       <c r="A62" s="5" t="s">
         <v>50</v>
       </c>
@@ -4601,33 +4718,31 @@
       <c r="G62" s="1">
         <v>33518000</v>
       </c>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" ht="19">
+    </row>
+    <row r="63" spans="1:7" ht="19">
       <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" ht="19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="19">
       <c r="A64" s="5" t="s">
         <v>55</v>
       </c>
@@ -4649,9 +4764,8 @@
       <c r="G64" s="1">
         <v>17648000</v>
       </c>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:16" ht="19">
+    </row>
+    <row r="65" spans="1:15" ht="19">
       <c r="A65" s="5" t="s">
         <v>56</v>
       </c>
@@ -4673,33 +4787,31 @@
       <c r="G65" s="1">
         <v>634168000</v>
       </c>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:16" ht="19">
+    </row>
+    <row r="66" spans="1:15" ht="19">
       <c r="A66" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:16" ht="19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="19">
       <c r="A67" s="6" t="s">
         <v>58</v>
       </c>
@@ -4721,9 +4833,8 @@
       <c r="G67" s="10">
         <v>1227498000</v>
       </c>
-      <c r="H67" s="63"/>
-    </row>
-    <row r="68" spans="1:16" ht="19">
+    </row>
+    <row r="68" spans="1:15" ht="19">
       <c r="A68" s="5" t="s">
         <v>59</v>
       </c>
@@ -4745,9 +4856,8 @@
       <c r="G68" s="1">
         <v>990000</v>
       </c>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:16" ht="19">
+    </row>
+    <row r="69" spans="1:15" ht="19">
       <c r="A69" s="5" t="s">
         <v>60</v>
       </c>
@@ -4769,9 +4879,8 @@
       <c r="G69" s="1">
         <v>-817166000</v>
       </c>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:16" ht="19">
+    </row>
+    <row r="70" spans="1:15" ht="19">
       <c r="A70" s="5" t="s">
         <v>61</v>
       </c>
@@ -4793,9 +4902,8 @@
       <c r="G70" s="1">
         <v>-18130000</v>
       </c>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:16" ht="19">
+    </row>
+    <row r="71" spans="1:15" ht="19">
       <c r="A71" s="5" t="s">
         <v>62</v>
       </c>
@@ -4817,9 +4925,8 @@
       <c r="G71" s="1">
         <v>1249739000</v>
       </c>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:16" ht="19">
+    </row>
+    <row r="72" spans="1:15" ht="19">
       <c r="A72" s="6" t="s">
         <v>63</v>
       </c>
@@ -4841,9 +4948,8 @@
       <c r="G72" s="10">
         <v>415433000</v>
       </c>
-      <c r="H72" s="63"/>
-    </row>
-    <row r="73" spans="1:16" ht="20" thickBot="1">
+    </row>
+    <row r="73" spans="1:15" ht="20" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>64</v>
       </c>
@@ -4865,57 +4971,54 @@
       <c r="G73" s="11">
         <v>1642931000</v>
       </c>
-      <c r="H73" s="63"/>
-    </row>
-    <row r="74" spans="1:16" ht="20" thickTop="1">
+    </row>
+    <row r="74" spans="1:15" ht="20" thickTop="1">
       <c r="A74" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H74" s="13"/>
-    </row>
-    <row r="75" spans="1:16" ht="21">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="21">
       <c r="A75" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="9"/>
-    </row>
-    <row r="76" spans="1:16" ht="19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="19">
       <c r="A76" s="5" t="s">
         <v>66</v>
       </c>
@@ -4937,9 +5040,8 @@
       <c r="G76" s="1">
         <v>-203848000</v>
       </c>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:16" ht="19">
+    </row>
+    <row r="77" spans="1:15" ht="19">
       <c r="A77" s="5" t="s">
         <v>13</v>
       </c>
@@ -4961,9 +5063,8 @@
       <c r="G77" s="1">
         <v>19728000</v>
       </c>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:16" ht="19">
+    </row>
+    <row r="78" spans="1:15" ht="19">
       <c r="A78" s="5" t="s">
         <v>67</v>
       </c>
@@ -4971,7 +5072,7 @@
         <v>663000</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1">
         <v>3621000</v>
@@ -4985,9 +5086,8 @@
       <c r="G78" s="1">
         <v>-2430000</v>
       </c>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:16" ht="19">
+    </row>
+    <row r="79" spans="1:15" ht="19">
       <c r="A79" s="5" t="s">
         <v>68</v>
       </c>
@@ -5009,34 +5109,33 @@
       <c r="G79" s="1">
         <v>140612000</v>
       </c>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:16" ht="19">
+    </row>
+    <row r="80" spans="1:15" ht="19">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:G80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:G80" si="8">B79/B3</f>
         <v>0.21418283679417535</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.9669865883014973E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14703316363154464</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14032786118516441</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15395512490776334</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.16305222560049351</v>
       </c>
       <c r="H80" s="15"/>
@@ -5047,9 +5146,8 @@
       <c r="M80" s="15"/>
       <c r="N80" s="15"/>
       <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-    </row>
-    <row r="81" spans="1:16" ht="19">
+    </row>
+    <row r="81" spans="1:15" ht="19">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
@@ -5071,9 +5169,8 @@
       <c r="G81" s="1">
         <v>-20649000</v>
       </c>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:16" ht="19">
+    </row>
+    <row r="82" spans="1:15" ht="19">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
@@ -5095,37 +5192,35 @@
       <c r="G82" s="1">
         <v>-62187000</v>
       </c>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:16" ht="21">
+    </row>
+    <row r="83" spans="1:15" ht="21">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H83" s="1"/>
-      <c r="O83" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="P83" s="67"/>
-    </row>
-    <row r="84" spans="1:16" ht="19">
+        <v>91</v>
+      </c>
+      <c r="N83" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="O83" s="67"/>
+    </row>
+    <row r="84" spans="1:15" ht="19">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -5147,13 +5242,12 @@
       <c r="G84" s="1">
         <v>21036000</v>
       </c>
-      <c r="H84" s="1"/>
-      <c r="O84" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="P84" s="69"/>
-    </row>
-    <row r="85" spans="1:16" ht="20">
+      <c r="N84" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="O84" s="68"/>
+    </row>
+    <row r="85" spans="1:15" ht="20">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -5175,16 +5269,15 @@
       <c r="G85" s="1">
         <v>4800000</v>
       </c>
-      <c r="H85" s="1"/>
-      <c r="O85" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="P85" s="25">
+      <c r="N85" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="O85" s="45">
         <f>G17</f>
         <v>20716000</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="20">
+    <row r="86" spans="1:15" ht="20">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -5206,16 +5299,15 @@
       <c r="G86" s="1">
         <v>72259000</v>
       </c>
-      <c r="H86" s="1"/>
-      <c r="O86" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="P86" s="25">
+      <c r="N86" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="O86" s="45">
         <f>G56</f>
         <v>11219000</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="20">
+    <row r="87" spans="1:15" ht="20">
       <c r="A87" s="6" t="s">
         <v>73</v>
       </c>
@@ -5237,16 +5329,15 @@
       <c r="G87" s="10">
         <v>5672000</v>
       </c>
-      <c r="H87" s="63"/>
-      <c r="O87" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="P87" s="25">
+      <c r="N87" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="O87" s="45">
         <f>G61</f>
         <v>583002000</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="20">
+    <row r="88" spans="1:15" ht="20">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -5268,53 +5359,51 @@
       <c r="G88" s="1">
         <v>-2485000</v>
       </c>
-      <c r="H88" s="1"/>
-      <c r="O88" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="P88" s="36">
-        <f>P85/(P86+P87)</f>
+      <c r="N88" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="O88" s="47">
+        <f>O85/(O86+O87)</f>
         <v>3.4862450165847388E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="20" customHeight="1">
+    <row r="89" spans="1:15" ht="20" customHeight="1">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:G89" si="9">(-1*B88)/B3</f>
+        <v>9.5603161822243894E-3</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.855753900021884E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.268898189970293E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1839951358682942E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.4290398018698779E-3</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.8815803815977754E-3</v>
+      </c>
+      <c r="N89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:G89" si="7">(-1*B88)/B3</f>
-        <v>9.5603161822243894E-3</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.855753900021884E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.268898189970293E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.1839951358682942E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.4290398018698779E-3</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.8815803815977754E-3</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="O89" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="P89" s="25">
+      <c r="O89" s="45">
         <f>G27</f>
         <v>6059000</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="20">
+    <row r="90" spans="1:15" ht="20">
       <c r="A90" s="5" t="s">
         <v>75</v>
       </c>
@@ -5331,21 +5420,20 @@
         <v>-24373000</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1">
         <v>-119854000</v>
       </c>
-      <c r="H90" s="1"/>
-      <c r="O90" s="24" t="s">
+      <c r="N90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P90" s="25">
+      <c r="O90" s="45">
         <f>G25</f>
         <v>-197789000</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="20">
+    <row r="91" spans="1:15" ht="20">
       <c r="A91" s="5" t="s">
         <v>76</v>
       </c>
@@ -5353,69 +5441,67 @@
         <v>-15000000</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H91" s="1"/>
-      <c r="O91" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="P91" s="36">
-        <f>P89/P90</f>
+        <v>91</v>
+      </c>
+      <c r="N91" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="O91" s="47">
+        <f>O89/O90</f>
         <v>-3.063365505665128E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="20">
+    <row r="92" spans="1:15" ht="20">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1">
         <v>15000000</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H92" s="1"/>
-      <c r="O92" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="P92" s="38">
-        <f>P88*(1-P91)</f>
+        <v>91</v>
+      </c>
+      <c r="N92" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="O92" s="47">
+        <f>O88*(1-O91)</f>
         <v>3.5930414438657653E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="19">
+    <row r="93" spans="1:15" ht="19">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>-2850000</v>
@@ -5429,13 +5515,12 @@
       <c r="G93" s="1">
         <v>-4932000</v>
       </c>
-      <c r="H93" s="1"/>
-      <c r="O93" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="P93" s="69"/>
-    </row>
-    <row r="94" spans="1:16" ht="20">
+      <c r="N93" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="O93" s="68"/>
+    </row>
+    <row r="94" spans="1:15" ht="20">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -5457,15 +5542,15 @@
       <c r="G94" s="10">
         <v>-127271000</v>
       </c>
-      <c r="H94" s="63"/>
-      <c r="O94" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="P94" s="39">
-        <v>4.095E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" ht="20">
+      <c r="N94" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="O94" s="48">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0480000000000002E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="20">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
@@ -5482,51 +5567,49 @@
         <v>-90000</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H95" s="1"/>
-      <c r="O95" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="P95" s="40" cm="1">
-        <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>1.0128999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="20">
+        <v>91</v>
+      </c>
+      <c r="N95" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="O95" s="49" cm="1">
+        <f t="array" ref="O95">_FV(A1,"Beta")</f>
+        <v>0.98460000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="20">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>269514000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H96" s="1"/>
-      <c r="O96" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="P96" s="39">
+        <v>91</v>
+      </c>
+      <c r="N96" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="O96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="20">
+    <row r="97" spans="1:16" ht="20">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
@@ -5537,55 +5620,53 @@
         <v>-344000</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H97" s="1"/>
-      <c r="O97" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="P97" s="38">
-        <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.4555345000000004E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" ht="19">
+        <v>91</v>
+      </c>
+      <c r="N97" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="O97" s="47">
+        <f>(O94)+((O95)*(O96-O94))</f>
+        <v>8.3329792000000014E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="19">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H98" s="1"/>
-      <c r="O98" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="P98" s="69"/>
-    </row>
-    <row r="99" spans="1:17" ht="20">
+        <v>91</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="O98" s="68"/>
+    </row>
+    <row r="99" spans="1:16" ht="20">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -5607,16 +5688,15 @@
       <c r="G99" s="1">
         <v>602127000</v>
       </c>
-      <c r="H99" s="1"/>
-      <c r="O99" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="P99" s="25">
-        <f>P86+P87</f>
+      <c r="N99" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="O99" s="45">
+        <f>O86+O87</f>
         <v>594221000</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="20">
+    <row r="100" spans="1:16" ht="20">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
@@ -5638,16 +5718,15 @@
       <c r="G100" s="10">
         <v>602127000</v>
       </c>
-      <c r="H100" s="63"/>
-      <c r="O100" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="P100" s="36">
-        <f>P99/P103</f>
-        <v>8.7889355390145626E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="20">
+      <c r="N100" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="O100" s="47">
+        <f>O99/O103</f>
+        <v>8.664130702147424E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="20">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
@@ -5669,16 +5748,15 @@
       <c r="G101" s="1">
         <v>-20599000</v>
       </c>
-      <c r="H101" s="1"/>
-      <c r="O101" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="P101" s="41" cm="1">
-        <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6166791154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" ht="20">
+      <c r="N101" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="O101" s="50" cm="1">
+        <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
+        <v>6264182000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="20">
       <c r="A102" s="6" t="s">
         <v>87</v>
       </c>
@@ -5700,16 +5778,15 @@
       <c r="G102" s="10">
         <v>459929000</v>
       </c>
-      <c r="H102" s="63"/>
-      <c r="O102" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="P102" s="36">
-        <f>P101/P103</f>
-        <v>0.91211064460985436</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" ht="20">
+      <c r="N102" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="O102" s="47">
+        <f>O101/O103</f>
+        <v>0.91335869297852579</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="20">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
@@ -5731,16 +5808,15 @@
       <c r="G103" s="1">
         <v>403708000</v>
       </c>
-      <c r="H103" s="1"/>
-      <c r="O103" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="P103" s="42">
-        <f>P99+P101</f>
-        <v>6761012154</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" ht="20" thickBot="1">
+      <c r="N103" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="O103" s="51">
+        <f>O99+O101</f>
+        <v>6858403000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="20" thickBot="1">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -5762,271 +5838,289 @@
       <c r="G104" s="11">
         <v>863637000</v>
       </c>
-      <c r="H104" s="63"/>
-      <c r="O104" s="68" t="s">
+      <c r="N104" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="O104" s="68"/>
+    </row>
+    <row r="105" spans="1:16" ht="21" thickTop="1">
+      <c r="A105" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:F105" si="10">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>-30715600</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-34929200</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>-71171800</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>-109498000</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>-88497400</v>
+      </c>
+      <c r="G105" s="1">
+        <f>(G22*(1-0.2))+G77+G88+G81</f>
+        <v>-142350000</v>
+      </c>
+      <c r="H105" s="29">
+        <f>G105*(1+$O$106)</f>
+        <v>-171532815.09934896</v>
+      </c>
+      <c r="I105" s="29">
+        <f t="shared" ref="I105:L105" si="11">H105*(1+$O$106)</f>
+        <v>-206698325.64740035</v>
+      </c>
+      <c r="J105" s="29">
+        <f t="shared" si="11"/>
+        <v>-249073028.97520581</v>
+      </c>
+      <c r="K105" s="29">
+        <f t="shared" si="11"/>
+        <v>-300134863.54365134</v>
+      </c>
+      <c r="L105" s="29">
+        <f t="shared" si="11"/>
+        <v>-361664756.25642067</v>
+      </c>
+      <c r="M105" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="N105" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="O105" s="53">
+        <f>(O100*O92)+(O102*O97)</f>
+        <v>7.9223047976080971E-2</v>
+      </c>
+      <c r="P105" s="15"/>
+    </row>
+    <row r="106" spans="1:16" ht="19">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>0.40336283185840704</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>0.15121705133055863</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>0.30101519135261467</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>-1.5141044713279255</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>-1.0952718934265124</v>
+      </c>
+      <c r="H106" s="32">
+        <v>-73300000</v>
+      </c>
+      <c r="I106" s="32">
+        <v>163900000</v>
+      </c>
+      <c r="J106" s="32">
+        <v>225300000</v>
+      </c>
+      <c r="K106" s="32">
+        <v>367500000</v>
+      </c>
+      <c r="L106" s="32">
+        <v>494400000</v>
+      </c>
+      <c r="M106" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="N106" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="P104" s="69"/>
-    </row>
-    <row r="105" spans="1:17" ht="21" thickTop="1">
-      <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>0.40336283185840704</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>0.15121705133055863</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.30101519135261467</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-1.5141044713279255</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-1.0952718934265124</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="61">
-        <v>-83258000</v>
-      </c>
-      <c r="J105" s="61">
-        <v>26371000</v>
-      </c>
-      <c r="K105" s="61">
-        <v>20038000</v>
-      </c>
-      <c r="L105" s="61">
-        <v>221500000</v>
-      </c>
-      <c r="M105" s="61">
-        <v>221500000</v>
-      </c>
-      <c r="N105" s="15"/>
-      <c r="O105" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="P105" s="27">
-        <f>(P100*P92)+(P102*P97)</f>
-        <v>8.0281731197073034E-2</v>
-      </c>
-      <c r="Q105" s="15"/>
-    </row>
-    <row r="106" spans="1:17" ht="19">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="O106" s="55">
+        <f>(SUM(H4:L4)/5)</f>
+        <v>0.20500748225745688</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="19">
+      <c r="A107" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1">
         <v>-16950000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>-23787000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>-27384000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>-35627000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>18316000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>-1745000</v>
       </c>
-      <c r="H106" s="1"/>
-      <c r="I106" s="43">
-        <f>G106*(1+$P$106)</f>
-        <v>-2153252.4641725374</v>
-      </c>
-      <c r="J106" s="43">
-        <f t="shared" ref="J106:M106" si="8">I106*(1+$P$106)</f>
-        <v>-2657017.8650229825</v>
-      </c>
-      <c r="K106" s="43">
-        <f t="shared" si="8"/>
-        <v>-3278641.9857943789</v>
-      </c>
-      <c r="L106" s="43">
-        <f t="shared" si="8"/>
-        <v>-4045698.5301153511</v>
-      </c>
-      <c r="M106" s="43">
-        <f t="shared" si="8"/>
-        <v>-4992212.2230774164</v>
-      </c>
-      <c r="N106" s="44" t="s">
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="33">
+        <f>L106*(1+O107)/(O108-O107)</f>
+        <v>9345841278.1137543</v>
+      </c>
+      <c r="M107" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="O106" s="45" t="s">
+      <c r="N107" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="P106" s="46">
-        <f>(SUM(I4:M4)/5)</f>
-        <v>0.23395556686105284</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" ht="19">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="44"/>
-      <c r="J107" s="44"/>
-      <c r="K107" s="44"/>
-      <c r="L107" s="44"/>
-      <c r="M107" s="62">
-        <f>M105*(1+P107)/(P108-P107)</f>
-        <v>4106917332.0682979</v>
-      </c>
-      <c r="N107" s="48" t="s">
+      <c r="O107" s="57">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="19">
+      <c r="H108" s="33">
+        <f t="shared" ref="H108:K108" si="12">H107+H106</f>
+        <v>-73300000</v>
+      </c>
+      <c r="I108" s="33">
+        <f t="shared" si="12"/>
+        <v>163900000</v>
+      </c>
+      <c r="J108" s="33">
+        <f t="shared" si="12"/>
+        <v>225300000</v>
+      </c>
+      <c r="K108" s="33">
+        <f t="shared" si="12"/>
+        <v>367500000</v>
+      </c>
+      <c r="L108" s="33">
+        <f>L107+L106</f>
+        <v>9840241278.1137543</v>
+      </c>
+      <c r="M108" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="N108" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="O107" s="49" t="s">
+      <c r="O108" s="55">
+        <f>O105</f>
+        <v>7.9223047976080971E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="19">
+      <c r="H109" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="P107" s="50">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="19">
-      <c r="I108" s="47">
-        <f t="shared" ref="I108:K108" si="9">I107+I106</f>
-        <v>-2153252.4641725374</v>
-      </c>
-      <c r="J108" s="47">
-        <f t="shared" si="9"/>
-        <v>-2657017.8650229825</v>
-      </c>
-      <c r="K108" s="47">
-        <f t="shared" si="9"/>
-        <v>-3278641.9857943789</v>
-      </c>
-      <c r="L108" s="47">
-        <f>L107+L106</f>
-        <v>-4045698.5301153511</v>
-      </c>
-      <c r="M108" s="62">
-        <f>M107+M105</f>
-        <v>4328417332.0682983</v>
-      </c>
-      <c r="N108" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="O108" s="51" t="s">
+      <c r="I109" s="65"/>
+    </row>
+    <row r="110" spans="1:16" ht="20">
+      <c r="H110" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="P108" s="52">
-        <f>P105</f>
-        <v>8.0281731197073034E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="19">
-      <c r="I109" s="64" t="s">
+      <c r="I110" s="50">
+        <f>NPV(O108,H108,I108,J108,K108,L108)</f>
+        <v>7244184555.4574585</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="20">
+      <c r="H111" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="J109" s="65"/>
-    </row>
-    <row r="110" spans="1:17" ht="20">
-      <c r="I110" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="J110" s="41">
-        <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>2932167535.5551243</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="20">
-      <c r="I111" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="J111" s="41">
+      <c r="I111" s="50">
         <f>G40</f>
         <v>860949000</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="20">
-      <c r="I112" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="J112" s="41">
-        <f>P99</f>
+    <row r="112" spans="1:16" ht="20">
+      <c r="H112" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="I112" s="50">
+        <f>O99</f>
         <v>594221000</v>
       </c>
     </row>
-    <row r="113" spans="9:10" ht="20">
-      <c r="I113" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="J113" s="41">
-        <f>J110+J111-J112</f>
-        <v>3198895535.5551243</v>
-      </c>
-    </row>
-    <row r="114" spans="9:10" ht="20">
-      <c r="I114" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="J114" s="54">
+    <row r="113" spans="8:9" ht="20">
+      <c r="H113" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="I113" s="50">
+        <f>I110+I111-I112</f>
+        <v>7510912555.4574585</v>
+      </c>
+    </row>
+    <row r="114" spans="8:9" ht="20">
+      <c r="H114" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="I114" s="59">
         <f>G34*(1+(5*0.05))</f>
         <v>115683931.25</v>
       </c>
     </row>
-    <row r="115" spans="9:10" ht="20">
-      <c r="I115" s="55" t="s">
+    <row r="115" spans="8:9" ht="20">
+      <c r="H115" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="I115" s="61">
+        <f>I113/I114</f>
+        <v>64.926152442260289</v>
+      </c>
+    </row>
+    <row r="116" spans="8:9" ht="20">
+      <c r="H116" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="I116" s="62" cm="1">
+        <f t="array" ref="I116">_FV(A1,"Price")</f>
+        <v>64.319999999999993</v>
+      </c>
+    </row>
+    <row r="117" spans="8:9" ht="20">
+      <c r="H117" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="J115" s="56">
-        <f>J113/J114</f>
-        <v>27.652029983681285</v>
-      </c>
-    </row>
-    <row r="116" spans="9:10" ht="20">
-      <c r="I116" s="53" t="s">
+      <c r="I117" s="63">
+        <f>I115/I116-1</f>
+        <v>9.4240118510617865E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="8:9" ht="20">
+      <c r="H118" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="J116" s="57" cm="1">
-        <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>63.32</v>
-      </c>
-    </row>
-    <row r="117" spans="9:10" ht="20">
-      <c r="I117" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="J117" s="59">
-        <f>J115/J116-1</f>
-        <v>-0.56329706279720015</v>
-      </c>
-    </row>
-    <row r="118" spans="9:10" ht="20">
-      <c r="I118" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="J118" s="60" t="str">
-        <f>IF(J115&gt;J116,"BUY","SELL")</f>
-        <v>SELL</v>
+      <c r="I118" s="64" t="str">
+        <f>IF(I115&gt;I116,"BUY","SELL")</f>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O98:P98"/>
-    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="N104:O104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ESTC" display="ROIC.AI | ESTC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6042,9 +6136,10 @@
     <hyperlink ref="F74" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1707753/000170775321000026/0001707753-21-000026-index.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G36" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1707753/000170775322000025/0001707753-22-000025-index.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="G74" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1707753/000170775322000025/0001707753-22-000025-index.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I1" r:id="rId14" display="https://finbox.com/NYSE:ESTC/explorer/revenue_proj" xr:uid="{059F6893-8E61-ED47-A875-B12979FC0C0A}"/>
+    <hyperlink ref="H1" r:id="rId14" display="https://finbox.com/NYSE:ESTC/explorer/revenue_proj" xr:uid="{059F6893-8E61-ED47-A875-B12979FC0C0A}"/>
+    <hyperlink ref="M106" r:id="rId15" xr:uid="{B059B52A-8D77-B94A-8774-A8245E7AAD12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
--- a/Technology/Software/Elastic N.V.xlsx
+++ b/Technology/Software/Elastic N.V.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A1BE36-298C-184B-A3D7-B1D19AD5F04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D792AAF-89B9-7448-AEE3-81C0FF772FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -1064,20 +1064,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>Elastic</a:t>
+              <a:t>Elastic N.V.</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.44973509933774836"/>
-          <c:y val="2.6913249806489972E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1111,10 +1102,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.2556291390728481E-2"/>
-          <c:y val="0.15709903272905379"/>
-          <c:w val="0.87241059602649007"/>
-          <c:h val="0.7126308934805401"/>
+          <c:x val="9.4320661157024796E-2"/>
+          <c:y val="0.13579900652914254"/>
+          <c:w val="0.8395636363636364"/>
+          <c:h val="0.71855295980564415"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1168,12 +1159,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$G$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>88177000</c:v>
                 </c:pt>
@@ -1192,12 +1213,15 @@
                 <c:pt idx="5">
                   <c:v>862374000</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1069000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-042A-E945-BA54-A8572129B22A}"/>
+              <c16:uniqueId val="{00000000-A651-7D4D-862F-0DBC76761FF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1206,11 +1230,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1248,36 +1272,69 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$G$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-44605000</c:v>
+                  <c:v>-51968000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-44285000</c:v>
+                  <c:v>-52727000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-92220000</c:v>
+                  <c:v>-102303000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-156283000</c:v>
+                  <c:v>-167174000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-104477000</c:v>
+                  <c:v>-129434000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-157345000</c:v>
+                  <c:v>-203848000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-236000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-042A-E945-BA54-A8572129B22A}"/>
+              <c16:uniqueId val="{00000001-A651-7D4D-862F-0DBC76761FF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1328,12 +1385,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$G$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$H$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-16950000</c:v>
                 </c:pt>
@@ -1352,12 +1439,15 @@
                 <c:pt idx="5">
                   <c:v>-1745000</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>32978000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-042A-E945-BA54-A8572129B22A}"/>
+              <c16:uniqueId val="{00000002-A651-7D4D-862F-0DBC76761FF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1371,11 +1461,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1501369472"/>
-        <c:axId val="1501116112"/>
+        <c:axId val="913876447"/>
+        <c:axId val="913878175"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1501369472"/>
+        <c:axId val="913876447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1493,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1415,7 +1505,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1501116112"/>
+        <c:crossAx val="913878175"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1423,10 +1513,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1501116112"/>
+        <c:axId val="913878175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-200000000"/>
+          <c:min val="-250000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1472,7 +1562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1501369472"/>
+        <c:crossAx val="913876447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1490,10 +1580,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35881827188819942"/>
-          <c:y val="0.92821769517367958"/>
-          <c:w val="0.30355550920373364"/>
-          <c:h val="4.8245968429433246E-2"/>
+          <c:x val="0.36029986334352831"/>
+          <c:y val="0.90496279907160371"/>
+          <c:w val="0.31378033448298304"/>
+          <c:h val="5.6469707815448689E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2072,23 +2162,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:colOff>1603374</xdr:colOff>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B58B4F8-4852-649E-CEDB-CB3A48000BD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744D9B45-2E88-0B08-BB33-79B05C0E6CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,6 +2216,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2137,7 +2228,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2156,6 +2247,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2872,23 +2964,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="7" width="15" customWidth="1"/>
-    <col min="8" max="16" width="21" customWidth="1"/>
+    <col min="2" max="8" width="15" customWidth="1"/>
+    <col min="9" max="17" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="22" thickBot="1">
+    <row r="1" spans="1:39" ht="22" thickBot="1">
       <c r="A1" s="3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2910,7 +3002,7 @@
       <c r="G1" s="8">
         <v>2022</v>
       </c>
-      <c r="H1" s="24">
+      <c r="H1" s="8">
         <v>2023</v>
       </c>
       <c r="I1" s="24">
@@ -2925,8 +3017,11 @@
       <c r="L1" s="24">
         <v>2027</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" ht="21">
+      <c r="M1" s="24">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="21">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2954,15 +3049,18 @@
       <c r="I2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-    </row>
-    <row r="3" spans="1:38" ht="40">
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:39" ht="40">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2984,7 +3082,7 @@
       <c r="G3" s="1">
         <v>862374000</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="1">
         <v>1069000000</v>
       </c>
       <c r="I3" s="25">
@@ -2999,20 +3097,23 @@
       <c r="L3" s="25">
         <v>2187000000</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="25">
+        <v>2568000000</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="O3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="P3" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="Q3" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="19">
+    <row r="4" spans="1:39" ht="19">
       <c r="A4" s="14" t="s">
         <v>93</v>
       </c>
@@ -3030,23 +3131,23 @@
         <v>0.5741405395854271</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:L4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:M4" si="0">(F3/E3)-1</f>
         <v>0.42296665263551758</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>0.41723843816404238</v>
       </c>
-      <c r="H4" s="16">
-        <f>(H3/G3)-1</f>
+      <c r="H4" s="15">
+        <f t="shared" si="0"/>
         <v>0.23960137944789617</v>
       </c>
       <c r="I4" s="16">
-        <f t="shared" si="0"/>
+        <f>(I3/H3)-1</f>
         <v>0.1637043966323668</v>
       </c>
       <c r="J4" s="16">
-        <f t="shared" si="0"/>
+        <f>(J3/I3)-1</f>
         <v>0.18971061093247599</v>
       </c>
       <c r="K4" s="16">
@@ -3057,34 +3158,38 @@
         <f t="shared" si="0"/>
         <v>0.18472372697724815</v>
       </c>
-      <c r="M4" s="17">
-        <f>(G4+F4+E4)/3</f>
-        <v>0.47144854346166237</v>
+      <c r="M4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.17421124828532242</v>
       </c>
       <c r="N4" s="17">
-        <f>(G20+F20+E20)/3</f>
-        <v>0.28973754508141458</v>
+        <f>SUM(F4:H4)/3</f>
+        <v>0.35993549008248538</v>
       </c>
       <c r="O4" s="17">
-        <f>(G29+F29+E29)/3</f>
-        <v>0.32775740317221819</v>
+        <f>SUM(F20:H20)/3</f>
+        <v>8.075143204380579E-2</v>
       </c>
       <c r="P4" s="17">
-        <f>(G106+F106+E106)/3</f>
-        <v>-0.76945372446727445</v>
-      </c>
-      <c r="AA4" s="16"/>
+        <f>SUM(F29:H29)/3</f>
+        <v>0.16896368227434536</v>
+      </c>
+      <c r="Q4" s="17">
+        <f>SUM(F106:H106)/3</f>
+        <v>-7.5026478999993307</v>
+      </c>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
       <c r="AF4" s="16"/>
-      <c r="AI4" s="18"/>
+      <c r="AG4" s="16"/>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="18"/>
       <c r="AL4" s="18"/>
-    </row>
-    <row r="5" spans="1:38" ht="19">
+      <c r="AM4" s="18"/>
+    </row>
+    <row r="5" spans="1:39" ht="19">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3106,8 +3211,11 @@
       <c r="G5" s="1">
         <v>232194000</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" ht="20">
+      <c r="H5" s="1">
+        <v>297000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="20">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -3129,20 +3237,23 @@
       <c r="G6" s="10">
         <v>630180000</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="H6" s="10">
+        <v>772000000</v>
+      </c>
+      <c r="N6" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="O6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="P6" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="Q6" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="19">
+    <row r="7" spans="1:39" ht="19">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -3164,24 +3275,28 @@
       <c r="G7" s="2">
         <v>0.73080000000000001</v>
       </c>
-      <c r="M7" s="17">
-        <f>G7</f>
-        <v>0.73080000000000001</v>
-      </c>
-      <c r="N7" s="21">
-        <f>G21</f>
-        <v>-0.1825</v>
+      <c r="H7" s="2">
+        <f>H6/H3</f>
+        <v>0.72217025257249767</v>
+      </c>
+      <c r="N7" s="17">
+        <f>H7</f>
+        <v>0.72217025257249767</v>
       </c>
       <c r="O7" s="21">
-        <f>G30</f>
-        <v>-0.2364</v>
+        <f>H21</f>
+        <v>-0.15715622076707203</v>
       </c>
       <c r="P7" s="21">
-        <f>G107/G3</f>
-        <v>-2.0234840104177538E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="19">
+        <f>H30</f>
+        <v>-0.22076707202993451</v>
+      </c>
+      <c r="Q7" s="21">
+        <f>H107/H3</f>
+        <v>3.0849391955098223E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="19">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3203,9 +3318,12 @@
       <c r="G8" s="1">
         <v>273761000</v>
       </c>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:38" ht="19" customHeight="1">
+      <c r="H8" s="1">
+        <v>313000000</v>
+      </c>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:39" ht="19" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>94</v>
       </c>
@@ -3233,20 +3351,24 @@
         <f t="shared" si="1"/>
         <v>0.31745043333866746</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="H9" s="15">
+        <f t="shared" ref="H9" si="2">H8/H3</f>
+        <v>0.29279700654817586</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="O9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="P9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="Q9" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="19">
+    <row r="10" spans="1:39" ht="19">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -3268,24 +3390,27 @@
       <c r="G10" s="1">
         <v>123441000</v>
       </c>
-      <c r="M10" s="17">
-        <f>G9</f>
-        <v>0.31745043333866746</v>
-      </c>
-      <c r="N10" s="21">
-        <f>G13</f>
-        <v>0.61469733549480854</v>
+      <c r="H10" s="1">
+        <v>123441000</v>
+      </c>
+      <c r="N10" s="17">
+        <f>H9</f>
+        <v>0.29279700654817586</v>
       </c>
       <c r="O10" s="21">
-        <f>G80</f>
-        <v>0.16305222560049351</v>
+        <f>H13</f>
+        <v>0.6052385406922357</v>
       </c>
       <c r="P10" s="21">
-        <f>G89</f>
-        <v>2.8815803815977754E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" ht="19">
+        <f>H80</f>
+        <v>0.19083255378858746</v>
+      </c>
+      <c r="Q10" s="21">
+        <f>H89</f>
+        <v>2.8063610851262861E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="19">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -3307,8 +3432,11 @@
       <c r="G11" s="1">
         <v>406658000</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" ht="20">
+      <c r="H11" s="1">
+        <v>406658000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="20">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -3330,20 +3458,23 @@
       <c r="G12" s="1">
         <v>530099000</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="H12" s="1">
+        <v>647000000</v>
+      </c>
+      <c r="N12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="O12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="P12" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="Q12" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="19">
+    <row r="13" spans="1:39" ht="19">
       <c r="A13" s="14" t="s">
         <v>99</v>
       </c>
@@ -3352,43 +3483,47 @@
         <v>0.94018848452544312</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:G13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:G13" si="3">C12/C3</f>
         <v>0.69745834245162097</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71352791980946284</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.72649782517188155</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.62073431072706331</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61469733549480854</v>
       </c>
-      <c r="M13" s="17">
-        <f>G28/G72</f>
-        <v>-0.49068802911660847</v>
-      </c>
-      <c r="N13" s="21">
-        <f>G28/G54</f>
-        <v>-0.12407581328735047</v>
+      <c r="H13" s="15">
+        <f t="shared" ref="H13" si="4">H12/H3</f>
+        <v>0.6052385406922357</v>
+      </c>
+      <c r="N13" s="17">
+        <f>H28/H72</f>
+        <v>-0.5914786967418546</v>
       </c>
       <c r="O13" s="21">
-        <f>G22/(G72+G56+G61)</f>
-        <v>-0.1720193254322768</v>
-      </c>
-      <c r="P13" s="22">
-        <f>G67/G72</f>
-        <v>2.9547436048652851</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" ht="19">
+        <f>H28/H54</f>
+        <v>-0.13539873780837636</v>
+      </c>
+      <c r="P13" s="21">
+        <f>H22/(H72+H56+H61)</f>
+        <v>-0.18932527693856999</v>
+      </c>
+      <c r="Q13" s="22">
+        <f>H67/H72</f>
+        <v>3.3709273182957395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="19">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -3410,8 +3545,11 @@
       <c r="G14" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" ht="20">
+      <c r="H14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="20">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3433,20 +3571,23 @@
       <c r="G15" s="1">
         <v>803860000</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="H15" s="1">
+        <v>960000000</v>
+      </c>
+      <c r="N15" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="P15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="Q15" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="19">
+    <row r="16" spans="1:39" ht="19">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3468,24 +3609,28 @@
       <c r="G16" s="1">
         <v>1036054000</v>
       </c>
-      <c r="M16" s="27">
-        <f>(G35+F35+E35+D35+C35)/5</f>
-        <v>9.7693269804898203E-2</v>
-      </c>
-      <c r="N16" s="35">
-        <f>O101/G3</f>
-        <v>7.2638808683935272</v>
+      <c r="H16" s="1">
+        <f>H5+H15</f>
+        <v>1257000000</v>
+      </c>
+      <c r="N16" s="27">
+        <f>SUM(D35:H35)/5</f>
+        <v>0.10820550985640467</v>
       </c>
       <c r="O16" s="35">
-        <f>O101/G28</f>
-        <v>-30.729671127506769</v>
-      </c>
-      <c r="P16" s="36">
-        <f>O101/G107</f>
-        <v>-3589.7891117478512</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="19">
+        <f>P101/H3</f>
+        <v>5.8598521983161831</v>
+      </c>
+      <c r="P16" s="35">
+        <f>P101/H28</f>
+        <v>-26.543144067796611</v>
+      </c>
+      <c r="Q16" s="36">
+        <f>P101/H107</f>
+        <v>189.95033052337922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="19">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3507,8 +3652,11 @@
       <c r="G17" s="1">
         <v>20716000</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="20">
+      <c r="H17" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="20">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3530,20 +3678,23 @@
       <c r="G18" s="1">
         <v>19728000</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="H18" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="N18" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="O18" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="P18" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="Q18" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="19">
+    <row r="19" spans="1:17" ht="19">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3565,8 +3716,8 @@
       <c r="G19" s="10">
         <v>-157345000</v>
       </c>
-      <c r="H19" s="39">
-        <v>-161700000</v>
+      <c r="H19" s="10">
+        <v>-168000000</v>
       </c>
       <c r="I19" s="39">
         <v>134700000</v>
@@ -3580,24 +3731,27 @@
       <c r="L19" s="39">
         <v>413300000</v>
       </c>
-      <c r="M19" s="28">
-        <f>G40-G56-G61</f>
-        <v>266728000</v>
-      </c>
-      <c r="N19" s="35">
-        <f>O101/H3</f>
-        <v>5.8598521983161831</v>
+      <c r="M19" s="39">
+        <v>549500000</v>
+      </c>
+      <c r="N19" s="28">
+        <f>H40-H56-H61</f>
+        <v>321000000</v>
       </c>
       <c r="O19" s="35">
-        <f>O101/H28</f>
-        <v>-26.520668924640134</v>
-      </c>
-      <c r="P19" s="36">
-        <f>O101/H105</f>
-        <v>-36.518854986271222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="19" customHeight="1">
+        <f>P101/I3</f>
+        <v>5.0355160771704179</v>
+      </c>
+      <c r="P19" s="35">
+        <f>P101/I28</f>
+        <v>60.994956183057447</v>
+      </c>
+      <c r="Q19" s="36">
+        <f>P101/I106</f>
+        <v>38.219536302623553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="19" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>100</v>
       </c>
@@ -3615,35 +3769,39 @@
         <v>0.69467577531988733</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:L20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:M20" si="5">(F19/E19)-1</f>
         <v>-0.33148838965210548</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50602524957646189</v>
       </c>
-      <c r="H20" s="16">
-        <f t="shared" si="3"/>
-        <v>2.7678032349296222E-2</v>
+      <c r="H20" s="15">
+        <f t="shared" si="5"/>
+        <v>6.7717436207060944E-2</v>
       </c>
       <c r="I20" s="16">
-        <f t="shared" si="3"/>
-        <v>-1.8330241187384044</v>
+        <f>(I19/H19)-1</f>
+        <v>-1.8017857142857143</v>
       </c>
       <c r="J20" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.39123979213066074</v>
       </c>
       <c r="K20" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.61419423692636066</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.36628099173553719</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="20">
+      <c r="M20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.32954270505685934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="20">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3665,34 +3823,38 @@
       <c r="G21" s="2">
         <v>-0.1825</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="2">
         <f>H19/H3</f>
-        <v>-0.15126286248830684</v>
+        <v>-0.15715622076707203</v>
       </c>
       <c r="I21" s="40">
-        <f t="shared" ref="I21:L21" si="4">I19/I3</f>
+        <f>I19/I3</f>
         <v>0.10827974276527332</v>
       </c>
       <c r="J21" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J21:M21" si="6">J19/J3</f>
         <v>0.12662162162162163</v>
       </c>
       <c r="K21" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.16386782231852653</v>
       </c>
       <c r="L21" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.18898033836305442</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="M21" s="40">
+        <f t="shared" si="6"/>
+        <v>0.2139797507788162</v>
+      </c>
+      <c r="P21" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="Q21" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="19">
+    <row r="22" spans="1:17" ht="19">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3714,16 +3876,19 @@
       <c r="G22" s="10">
         <v>-173680000</v>
       </c>
-      <c r="O22" s="37">
-        <f>(-1*G98)/O101</f>
+      <c r="H22" s="10">
+        <v>-188000000</v>
+      </c>
+      <c r="P22" s="37">
+        <f>(-1*H98)/P101</f>
         <v>0</v>
       </c>
-      <c r="P22" s="38">
-        <f>G107/O101</f>
-        <v>-2.7856789601579267E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="19">
+      <c r="Q22" s="38">
+        <f>H107/P101</f>
+        <v>5.2645341402915817E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="19">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3745,8 +3910,12 @@
       <c r="G23" s="2">
         <v>-0.2014</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="19">
+      <c r="H23" s="2">
+        <f>H22/H3</f>
+        <v>-0.17586529466791395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="19">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3768,8 +3937,11 @@
       <c r="G24" s="1">
         <v>-24109000</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="19">
+      <c r="H24" s="1">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="19">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3791,8 +3963,11 @@
       <c r="G25" s="10">
         <v>-197789000</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="19">
+      <c r="H25" s="10">
+        <v>-217000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="19">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3814,8 +3989,12 @@
       <c r="G26" s="2">
         <v>-0.22939999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="19">
+      <c r="H26" s="2">
+        <f>H25/H3</f>
+        <v>-0.2029934518241347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="19">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3837,8 +4016,11 @@
       <c r="G27" s="1">
         <v>6059000</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="20" thickBot="1">
+      <c r="H27" s="1">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="20" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3860,8 +4042,8 @@
       <c r="G28" s="11">
         <v>-203848000</v>
       </c>
-      <c r="H28" s="41">
-        <v>-236200000</v>
+      <c r="H28" s="11">
+        <v>-236000000</v>
       </c>
       <c r="I28" s="41">
         <v>102700000</v>
@@ -3875,8 +4057,11 @@
       <c r="L28" s="41">
         <v>161700000</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="20" customHeight="1" thickTop="1">
+      <c r="M28" s="41">
+        <v>278900000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="20" customHeight="1" thickTop="1">
       <c r="A29" s="14" t="s">
         <v>101</v>
       </c>
@@ -3894,35 +4079,39 @@
         <v>0.63410652669032186</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:L29" si="5">(F28/E28)-1</f>
+        <f t="shared" ref="F29:M29" si="7">(F28/E28)-1</f>
         <v>-0.22575280845107493</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.57491849127740768</v>
       </c>
-      <c r="H29" s="16">
-        <f t="shared" si="5"/>
-        <v>0.15870648718653113</v>
+      <c r="H29" s="15">
+        <f t="shared" si="7"/>
+        <v>0.15772536399670334</v>
       </c>
       <c r="I29" s="16">
-        <f t="shared" si="5"/>
-        <v>-1.4348010160880609</v>
+        <f>(I28/H28)-1</f>
+        <v>-1.4351694915254236</v>
       </c>
       <c r="J29" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.48685491723466412</v>
       </c>
       <c r="K29" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.56188605108055012</v>
       </c>
       <c r="L29" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.32201257861635224</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="19">
+      <c r="M29" s="16">
+        <f t="shared" si="7"/>
+        <v>0.7247990105132962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="19">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3944,28 +4133,32 @@
       <c r="G30" s="2">
         <v>-0.2364</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="2">
         <f>H28/H3</f>
-        <v>-0.22095416276894295</v>
+        <v>-0.22076707202993451</v>
       </c>
       <c r="I30" s="42">
-        <f t="shared" ref="I30:L30" si="6">I28/I3</f>
+        <f>I28/I3</f>
         <v>8.2556270096463019E-2</v>
       </c>
       <c r="J30" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J30:M30" si="8">J28/J3</f>
         <v>0.10317567567567568</v>
       </c>
       <c r="K30" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1291982665222102</v>
       </c>
       <c r="L30" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.3936899862825783E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="19">
+      <c r="M30" s="42">
+        <f t="shared" si="8"/>
+        <v>0.10860591900311527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="19">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3987,8 +4180,8 @@
       <c r="G31" s="12">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="H31" s="43">
-        <v>-2.23</v>
+      <c r="H31" s="12">
+        <v>-2.4700000000000002</v>
       </c>
       <c r="I31" s="43">
         <v>1.05</v>
@@ -4002,8 +4195,11 @@
       <c r="L31" s="43">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="19">
+      <c r="M31" s="43">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="19">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4025,8 +4221,11 @@
       <c r="G32" s="12">
         <v>-2.2000000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="19">
+      <c r="H32" s="12">
+        <v>-2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -4048,8 +4247,11 @@
       <c r="G33" s="1">
         <v>92547145</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="19">
+      <c r="H33" s="1">
+        <v>96000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -4071,8 +4273,11 @@
       <c r="G34" s="1">
         <v>92547145</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="20" customHeight="1">
+      <c r="H34" s="1">
+        <v>96000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -4082,23 +4287,27 @@
         <v>-1.5252053659871246E-2</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:G35" si="7">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:H35" si="9">(D34-C34)/C34</f>
         <v>-9.9714091052835005E-2</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.43550558432699471</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10669277403126193</v>
       </c>
       <c r="G35" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.1234135378940617E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="19">
+      <c r="H35" s="23">
+        <f t="shared" si="9"/>
+        <v>3.7309146597661116E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -4120,8 +4329,11 @@
       <c r="G36" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="21">
+      <c r="H36" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="21">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -4143,8 +4355,11 @@
       <c r="G37" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="19">
+      <c r="H37" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -4166,8 +4381,11 @@
       <c r="G38" s="1">
         <v>860949000</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="19">
+      <c r="H38" s="1">
+        <v>644000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -4189,8 +4407,11 @@
       <c r="G39" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="19">
+      <c r="H39" s="1">
+        <v>271000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -4212,8 +4433,12 @@
       <c r="G40" s="1">
         <v>860949000</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="19">
+      <c r="H40" s="1">
+        <f>H38+H39</f>
+        <v>915000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -4235,8 +4460,11 @@
       <c r="G41" s="1">
         <v>215228000</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="19">
+      <c r="H41" s="1">
+        <v>261000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -4258,8 +4486,11 @@
       <c r="G42" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="19">
+      <c r="H42" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -4281,8 +4512,11 @@
       <c r="G43" s="1">
         <v>87531000</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="19">
+      <c r="H43" s="1">
+        <v>98000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4304,8 +4538,11 @@
       <c r="G44" s="10">
         <v>1163708000</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="19">
+      <c r="H44" s="10">
+        <v>1274000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4327,8 +4564,11 @@
       <c r="G45" s="1">
         <v>32644000</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="19">
+      <c r="H45" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4350,8 +4590,11 @@
       <c r="G46" s="1">
         <v>303906000</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="19">
+      <c r="H46" s="1">
+        <v>303906000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4373,8 +4616,11 @@
       <c r="G47" s="1">
         <v>45800000</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="19">
+      <c r="H47" s="1">
+        <v>29000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -4396,8 +4642,12 @@
       <c r="G48" s="1">
         <v>349706000</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="19">
+      <c r="H48" s="1">
+        <f>H46+H47</f>
+        <v>332906000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19">
       <c r="A49" s="5" t="s">
         <v>41</v>
       </c>
@@ -4419,8 +4669,11 @@
       <c r="G49" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="19">
+      <c r="H49" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="19">
       <c r="A50" s="5" t="s">
         <v>42</v>
       </c>
@@ -4442,8 +4695,11 @@
       <c r="G50" s="1">
         <v>5811000</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="19">
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19">
       <c r="A51" s="5" t="s">
         <v>43</v>
       </c>
@@ -4465,8 +4721,11 @@
       <c r="G51" s="1">
         <v>91062000</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="19">
+      <c r="H51" s="1">
+        <v>97000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19">
       <c r="A52" s="5" t="s">
         <v>44</v>
       </c>
@@ -4488,8 +4747,11 @@
       <c r="G52" s="1">
         <v>479223000</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="19">
+      <c r="H52" s="1">
+        <v>469000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19">
       <c r="A53" s="5" t="s">
         <v>45</v>
       </c>
@@ -4511,8 +4773,11 @@
       <c r="G53" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="20" thickBot="1">
+      <c r="H53" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="20" thickBot="1">
       <c r="A54" s="7" t="s">
         <v>46</v>
       </c>
@@ -4534,8 +4799,11 @@
       <c r="G54" s="11">
         <v>1642931000</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="20" thickTop="1">
+      <c r="H54" s="11">
+        <v>1743000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="20" thickTop="1">
       <c r="A55" s="5" t="s">
         <v>47</v>
       </c>
@@ -4557,8 +4825,11 @@
       <c r="G55" s="1">
         <v>28403000</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="19">
+      <c r="H55" s="1">
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19">
       <c r="A56" s="5" t="s">
         <v>48</v>
       </c>
@@ -4580,8 +4851,11 @@
       <c r="G56" s="1">
         <v>11219000</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="19">
+      <c r="H56" s="1">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="19">
       <c r="A57" s="5" t="s">
         <v>49</v>
       </c>
@@ -4603,8 +4877,11 @@
       <c r="G57" s="1">
         <v>13212000</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="19">
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19">
       <c r="A58" s="5" t="s">
         <v>50</v>
       </c>
@@ -4626,8 +4903,11 @@
       <c r="G58" s="1">
         <v>431776000</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="19">
+      <c r="H58" s="1">
+        <v>529000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19">
       <c r="A59" s="5" t="s">
         <v>51</v>
       </c>
@@ -4649,8 +4929,11 @@
       <c r="G59" s="1">
         <v>108720000</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="19">
+      <c r="H59" s="1">
+        <v>76000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="19">
       <c r="A60" s="6" t="s">
         <v>52</v>
       </c>
@@ -4672,8 +4955,11 @@
       <c r="G60" s="10">
         <v>593330000</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="19">
+      <c r="H60" s="10">
+        <v>717000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -4695,8 +4981,11 @@
       <c r="G61" s="1">
         <v>583002000</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="19">
+      <c r="H61" s="1">
+        <v>581000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="19">
       <c r="A62" s="5" t="s">
         <v>50</v>
       </c>
@@ -4718,8 +5007,11 @@
       <c r="G62" s="1">
         <v>33518000</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="19">
+      <c r="H62" s="1">
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19">
       <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
@@ -4741,8 +5033,11 @@
       <c r="G63" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="19">
+      <c r="H63" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="19">
       <c r="A64" s="5" t="s">
         <v>55</v>
       </c>
@@ -4764,8 +5059,11 @@
       <c r="G64" s="1">
         <v>17648000</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" ht="19">
+      <c r="H64" s="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="19">
       <c r="A65" s="5" t="s">
         <v>56</v>
       </c>
@@ -4787,8 +5085,11 @@
       <c r="G65" s="1">
         <v>634168000</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" ht="19">
+      <c r="H65" s="1">
+        <v>628000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="19">
       <c r="A66" s="5" t="s">
         <v>57</v>
       </c>
@@ -4810,8 +5111,11 @@
       <c r="G66" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" ht="19">
+      <c r="H66" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="19">
       <c r="A67" s="6" t="s">
         <v>58</v>
       </c>
@@ -4833,8 +5137,11 @@
       <c r="G67" s="10">
         <v>1227498000</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" ht="19">
+      <c r="H67" s="10">
+        <v>1345000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="19">
       <c r="A68" s="5" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5163,11 @@
       <c r="G68" s="1">
         <v>990000</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" ht="19">
+      <c r="H68" s="1">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="19">
       <c r="A69" s="5" t="s">
         <v>60</v>
       </c>
@@ -4879,8 +5189,11 @@
       <c r="G69" s="1">
         <v>-817166000</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" ht="19">
+      <c r="H69" s="1">
+        <v>-1053000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="19">
       <c r="A70" s="5" t="s">
         <v>61</v>
       </c>
@@ -4902,8 +5215,11 @@
       <c r="G70" s="1">
         <v>-18130000</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" ht="19">
+      <c r="H70" s="1">
+        <v>-20000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="19">
       <c r="A71" s="5" t="s">
         <v>62</v>
       </c>
@@ -4925,8 +5241,11 @@
       <c r="G71" s="1">
         <v>1249739000</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" ht="19">
+      <c r="H71" s="1">
+        <v>1472000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="19">
       <c r="A72" s="6" t="s">
         <v>63</v>
       </c>
@@ -4948,8 +5267,11 @@
       <c r="G72" s="10">
         <v>415433000</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" ht="20" thickBot="1">
+      <c r="H72" s="10">
+        <v>399000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="20" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>64</v>
       </c>
@@ -4971,8 +5293,12 @@
       <c r="G73" s="11">
         <v>1642931000</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" ht="20" thickTop="1">
+      <c r="H73" s="11">
+        <f>H67+H72</f>
+        <v>1744000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="20" thickTop="1">
       <c r="A74" s="5" t="s">
         <v>28</v>
       </c>
@@ -4994,8 +5320,11 @@
       <c r="G74" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" ht="21">
+      <c r="H74" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="21">
       <c r="A75" s="4" t="s">
         <v>65</v>
       </c>
@@ -5017,8 +5346,11 @@
       <c r="G75" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" ht="19">
+      <c r="H75" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="19">
       <c r="A76" s="5" t="s">
         <v>66</v>
       </c>
@@ -5040,8 +5372,11 @@
       <c r="G76" s="1">
         <v>-203848000</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" ht="19">
+      <c r="H76" s="1">
+        <v>-236000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="19">
       <c r="A77" s="5" t="s">
         <v>13</v>
       </c>
@@ -5063,8 +5398,11 @@
       <c r="G77" s="1">
         <v>19728000</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" ht="19">
+      <c r="H77" s="1">
+        <v>19728000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="19">
       <c r="A78" s="5" t="s">
         <v>67</v>
       </c>
@@ -5086,8 +5424,11 @@
       <c r="G78" s="1">
         <v>-2430000</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" ht="19">
+      <c r="H78" s="1">
+        <v>-2430000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="19">
       <c r="A79" s="5" t="s">
         <v>68</v>
       </c>
@@ -5109,36 +5450,42 @@
       <c r="G79" s="1">
         <v>140612000</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" ht="19">
+      <c r="H79" s="1">
+        <v>204000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="19">
       <c r="A80" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:G80" si="8">B79/B3</f>
+        <f t="shared" ref="B80:G80" si="10">B79/B3</f>
         <v>0.21418283679417535</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.9669865883014973E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14703316363154464</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14032786118516441</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.15395512490776334</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16305222560049351</v>
       </c>
-      <c r="H80" s="15"/>
+      <c r="H80" s="15">
+        <f t="shared" ref="H80" si="11">H79/H3</f>
+        <v>0.19083255378858746</v>
+      </c>
       <c r="I80" s="15"/>
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
@@ -5146,8 +5493,9 @@
       <c r="M80" s="15"/>
       <c r="N80" s="15"/>
       <c r="O80" s="15"/>
-    </row>
-    <row r="81" spans="1:15" ht="19">
+      <c r="P80" s="15"/>
+    </row>
+    <row r="81" spans="1:16" ht="19">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
@@ -5169,8 +5517,11 @@
       <c r="G81" s="1">
         <v>-20649000</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" ht="19">
+      <c r="H81" s="1">
+        <v>-35000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="19">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
@@ -5192,8 +5543,11 @@
       <c r="G82" s="1">
         <v>-62187000</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" ht="21">
+      <c r="H82" s="1">
+        <v>-46000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="21">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -5215,12 +5569,15 @@
       <c r="G83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N83" s="66" t="s">
+      <c r="H83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O83" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="O83" s="67"/>
-    </row>
-    <row r="84" spans="1:15" ht="19">
+      <c r="P83" s="67"/>
+    </row>
+    <row r="84" spans="1:16" ht="19">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -5242,12 +5599,15 @@
       <c r="G84" s="1">
         <v>21036000</v>
       </c>
-      <c r="N84" s="68" t="s">
+      <c r="H84" s="1">
+        <v>-35000000</v>
+      </c>
+      <c r="O84" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="O84" s="68"/>
-    </row>
-    <row r="85" spans="1:15" ht="20">
+      <c r="P84" s="68"/>
+    </row>
+    <row r="85" spans="1:16" ht="20">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -5269,15 +5629,18 @@
       <c r="G85" s="1">
         <v>4800000</v>
       </c>
-      <c r="N85" s="44" t="s">
+      <c r="H85" s="1">
+        <v>4800000</v>
+      </c>
+      <c r="O85" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="O85" s="45">
-        <f>G17</f>
-        <v>20716000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="20">
+      <c r="P85" s="45">
+        <f>H17</f>
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="20">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -5299,15 +5662,18 @@
       <c r="G86" s="1">
         <v>72259000</v>
       </c>
-      <c r="N86" s="44" t="s">
+      <c r="H86" s="1">
+        <v>79000000</v>
+      </c>
+      <c r="O86" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="O86" s="45">
-        <f>G56</f>
-        <v>11219000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="20">
+      <c r="P86" s="45">
+        <f>H56</f>
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="20">
       <c r="A87" s="6" t="s">
         <v>73</v>
       </c>
@@ -5329,15 +5695,18 @@
       <c r="G87" s="10">
         <v>5672000</v>
       </c>
-      <c r="N87" s="44" t="s">
+      <c r="H87" s="10">
+        <v>36000000</v>
+      </c>
+      <c r="O87" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="O87" s="45">
-        <f>G61</f>
-        <v>583002000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="20">
+      <c r="P87" s="45">
+        <f>H61</f>
+        <v>581000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="20">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -5359,51 +5728,58 @@
       <c r="G88" s="1">
         <v>-2485000</v>
       </c>
-      <c r="N88" s="46" t="s">
+      <c r="H88" s="1">
+        <v>-3000000</v>
+      </c>
+      <c r="O88" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="O88" s="47">
-        <f>O85/(O86+O87)</f>
-        <v>3.4862450165847388E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="20" customHeight="1">
+      <c r="P88" s="47">
+        <f>P85/(P86+P87)</f>
+        <v>4.208754208754209E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="20" customHeight="1">
       <c r="A89" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:G89" si="9">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:G89" si="12">(-1*B88)/B3</f>
         <v>9.5603161822243894E-3</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.855753900021884E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.268898189970293E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1839951358682942E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6.4290398018698779E-3</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.8815803815977754E-3</v>
       </c>
-      <c r="N89" s="44" t="s">
+      <c r="H89" s="15">
+        <f t="shared" ref="H89" si="13">(-1*H88)/H3</f>
+        <v>2.8063610851262861E-3</v>
+      </c>
+      <c r="O89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="O89" s="45">
-        <f>G27</f>
-        <v>6059000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="20">
+      <c r="P89" s="45">
+        <f>H27</f>
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="20">
       <c r="A90" s="5" t="s">
         <v>75</v>
       </c>
@@ -5425,15 +5801,18 @@
       <c r="G90" s="1">
         <v>-119854000</v>
       </c>
-      <c r="N90" s="44" t="s">
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="O90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O90" s="45">
-        <f>G25</f>
-        <v>-197789000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="20">
+      <c r="P90" s="45">
+        <f>H25</f>
+        <v>-217000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="20">
       <c r="A91" s="5" t="s">
         <v>76</v>
       </c>
@@ -5455,15 +5834,18 @@
       <c r="G91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N91" s="46" t="s">
+      <c r="H91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O91" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="O91" s="47">
-        <f>O89/O90</f>
-        <v>-3.063365505665128E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="20">
+      <c r="P91" s="47">
+        <f>P89/P90</f>
+        <v>-8.755760368663594E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="20">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
@@ -5485,15 +5867,18 @@
       <c r="G92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N92" s="46" t="s">
+      <c r="H92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O92" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="O92" s="47">
-        <f>O88*(1-O91)</f>
-        <v>3.5930414438657653E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="19">
+      <c r="P92" s="47">
+        <f>P88*(1-P91)</f>
+        <v>4.5772626417787711E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="19">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -5515,12 +5900,15 @@
       <c r="G93" s="1">
         <v>-4932000</v>
       </c>
-      <c r="N93" s="68" t="s">
+      <c r="H93" s="1">
+        <v>-4932000</v>
+      </c>
+      <c r="O93" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="O93" s="68"/>
-    </row>
-    <row r="94" spans="1:15" ht="20">
+      <c r="P93" s="68"/>
+    </row>
+    <row r="94" spans="1:16" ht="20">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -5542,15 +5930,18 @@
       <c r="G94" s="10">
         <v>-127271000</v>
       </c>
-      <c r="N94" s="44" t="s">
+      <c r="H94" s="10">
+        <v>-273000000</v>
+      </c>
+      <c r="O94" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="O94" s="48">
+      <c r="P94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="20">
+        <v>3.9120000000000002E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="20">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
@@ -5572,15 +5963,18 @@
       <c r="G95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N95" s="44" t="s">
+      <c r="H95" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O95" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="O95" s="49" cm="1">
-        <f t="array" ref="O95">_FV(A1,"Beta")</f>
+      <c r="P95" s="49" cm="1">
+        <f t="array" ref="P95">_FV(A1,"Beta")</f>
         <v>0.98460000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="20">
+    <row r="96" spans="1:16" ht="20">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
@@ -5602,14 +5996,17 @@
       <c r="G96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N96" s="44" t="s">
+      <c r="H96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O96" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="O96" s="48">
+      <c r="P96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="20">
+    <row r="97" spans="1:17" ht="20">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
@@ -5631,15 +6028,18 @@
       <c r="G97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N97" s="46" t="s">
+      <c r="H97" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O97" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="O97" s="47">
-        <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.3329792000000014E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="19">
+      <c r="P97" s="47">
+        <f>(P94)+((P95)*(P96-P94))</f>
+        <v>8.3308848000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="19">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -5661,12 +6061,15 @@
       <c r="G98" s="1">
         <v>0</v>
       </c>
-      <c r="N98" s="68" t="s">
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="O98" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="O98" s="68"/>
-    </row>
-    <row r="99" spans="1:16" ht="20">
+      <c r="P98" s="68"/>
+    </row>
+    <row r="99" spans="1:17" ht="20">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -5688,15 +6091,18 @@
       <c r="G99" s="1">
         <v>602127000</v>
       </c>
-      <c r="N99" s="44" t="s">
+      <c r="H99" s="1">
+        <v>17000000</v>
+      </c>
+      <c r="O99" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="O99" s="45">
-        <f>O86+O87</f>
-        <v>594221000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" ht="20">
+      <c r="P99" s="45">
+        <f>P86+P87</f>
+        <v>594000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="20">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
@@ -5718,15 +6124,18 @@
       <c r="G100" s="10">
         <v>602127000</v>
       </c>
-      <c r="N100" s="46" t="s">
+      <c r="H100" s="10">
+        <v>17000000</v>
+      </c>
+      <c r="O100" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="O100" s="47">
-        <f>O99/O103</f>
-        <v>8.664130702147424E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" ht="20">
+      <c r="P100" s="47">
+        <f>P99/P103</f>
+        <v>8.6611874692156032E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="20">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
@@ -5748,15 +6157,18 @@
       <c r="G101" s="1">
         <v>-20599000</v>
       </c>
-      <c r="N101" s="44" t="s">
+      <c r="H101" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="O101" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="O101" s="50" cm="1">
-        <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
+      <c r="P101" s="50" cm="1">
+        <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
         <v>6264182000</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="20">
+    <row r="102" spans="1:17" ht="20">
       <c r="A102" s="6" t="s">
         <v>87</v>
       </c>
@@ -5778,15 +6190,18 @@
       <c r="G102" s="10">
         <v>459929000</v>
       </c>
-      <c r="N102" s="46" t="s">
+      <c r="H102" s="10">
+        <v>-220000000</v>
+      </c>
+      <c r="O102" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="O102" s="47">
-        <f>O101/O103</f>
-        <v>0.91335869297852579</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" ht="20">
+      <c r="P102" s="47">
+        <f>P101/P103</f>
+        <v>0.91338812530784397</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="20">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
@@ -5808,15 +6223,18 @@
       <c r="G103" s="1">
         <v>403708000</v>
       </c>
-      <c r="N103" s="46" t="s">
+      <c r="H103" s="1">
+        <v>864000000</v>
+      </c>
+      <c r="O103" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="O103" s="51">
-        <f>O99+O101</f>
-        <v>6858403000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" ht="20" thickBot="1">
+      <c r="P103" s="51">
+        <f>P99+P101</f>
+        <v>6858182000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="20" thickBot="1">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -5838,72 +6256,79 @@
       <c r="G104" s="11">
         <v>863637000</v>
       </c>
-      <c r="N104" s="68" t="s">
+      <c r="H104" s="11">
+        <v>915000000</v>
+      </c>
+      <c r="O104" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="O104" s="68"/>
-    </row>
-    <row r="105" spans="1:16" ht="21" thickTop="1">
+      <c r="P104" s="68"/>
+    </row>
+    <row r="105" spans="1:17" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:F105" si="10">(B22*(1-0.2))+B77+B88+B81</f>
+        <f t="shared" ref="B105:F105" si="14">(B22*(1-0.2))+B77+B88+B81</f>
         <v>-30715600</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-34929200</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-71171800</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-109498000</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-88497400</v>
       </c>
       <c r="G105" s="1">
         <f>(G22*(1-0.2))+G77+G88+G81</f>
         <v>-142350000</v>
       </c>
-      <c r="H105" s="29">
-        <f>G105*(1+$O$106)</f>
-        <v>-171532815.09934896</v>
+      <c r="H105" s="1">
+        <f>(H22*(1-0.2))+H77+H88+H81</f>
+        <v>-168672000</v>
       </c>
       <c r="I105" s="29">
-        <f t="shared" ref="I105:L105" si="11">H105*(1+$O$106)</f>
-        <v>-206698325.64740035</v>
+        <f>G105*(1+$P$106)</f>
+        <v>-169671158.0651505</v>
       </c>
       <c r="J105" s="29">
-        <f t="shared" si="11"/>
-        <v>-249073028.97520581</v>
+        <f t="shared" ref="J105:M105" si="15">I105*(1+$P$106)</f>
+        <v>-202236051.1357168</v>
       </c>
       <c r="K105" s="29">
-        <f t="shared" si="11"/>
-        <v>-300134863.54365134</v>
+        <f t="shared" si="15"/>
+        <v>-241051106.4188273</v>
       </c>
       <c r="L105" s="29">
-        <f t="shared" si="11"/>
-        <v>-361664756.25642067</v>
-      </c>
-      <c r="M105" s="30" t="s">
+        <f t="shared" si="15"/>
+        <v>-287315914.14800322</v>
+      </c>
+      <c r="M105" s="29">
+        <f t="shared" si="15"/>
+        <v>-342460301.25773841</v>
+      </c>
+      <c r="N105" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="N105" s="52" t="s">
+      <c r="O105" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="O105" s="53">
-        <f>(O100*O92)+(O102*O97)</f>
-        <v>7.9223047976080971E-2</v>
-      </c>
-      <c r="P105" s="15"/>
-    </row>
-    <row r="106" spans="1:16" ht="19">
+      <c r="P105" s="53">
+        <f>(P100*P92)+(P102*P97)</f>
+        <v>8.0057765479904425E-2</v>
+      </c>
+      <c r="Q105" s="15"/>
+    </row>
+    <row r="106" spans="1:17" ht="19">
       <c r="A106" s="14" t="s">
         <v>106</v>
       </c>
@@ -5928,8 +6353,9 @@
         <f>(G107/F107)-1</f>
         <v>-1.0952718934265124</v>
       </c>
-      <c r="H106" s="32">
-        <v>-73300000</v>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-19.898567335243552</v>
       </c>
       <c r="I106" s="32">
         <v>163900000</v>
@@ -5943,18 +6369,21 @@
       <c r="L106" s="32">
         <v>494400000</v>
       </c>
-      <c r="M106" s="30" t="s">
+      <c r="M106" s="32">
+        <v>629800000</v>
+      </c>
+      <c r="N106" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="N106" s="54" t="s">
+      <c r="O106" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="O106" s="55">
-        <f>(SUM(H4:L4)/5)</f>
-        <v>0.20500748225745688</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" ht="19">
+      <c r="P106" s="55">
+        <f>(SUM(I4:M4)/5)</f>
+        <v>0.19192945602494213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="19">
       <c r="A107" s="34" t="s">
         <v>159</v>
       </c>
@@ -5976,151 +6405,154 @@
       <c r="G107" s="1">
         <v>-1745000</v>
       </c>
-      <c r="H107" s="30"/>
+      <c r="H107" s="1">
+        <v>32978000</v>
+      </c>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
       <c r="K107" s="30"/>
-      <c r="L107" s="33">
-        <f>L106*(1+O107)/(O108-O107)</f>
-        <v>9345841278.1137543</v>
-      </c>
-      <c r="M107" s="31" t="s">
+      <c r="L107" s="30"/>
+      <c r="M107" s="33">
+        <f>M106*(1+P107)/(P108-P107)</f>
+        <v>11724867407.407188</v>
+      </c>
+      <c r="N107" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="N107" s="56" t="s">
+      <c r="O107" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="O107" s="57">
+      <c r="P107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="19">
-      <c r="H108" s="33">
-        <f t="shared" ref="H108:K108" si="12">H107+H106</f>
-        <v>-73300000</v>
-      </c>
+    <row r="108" spans="1:17" ht="19">
       <c r="I108" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I108:L108" si="16">I107+I106</f>
         <v>163900000</v>
       </c>
       <c r="J108" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>225300000</v>
       </c>
       <c r="K108" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>367500000</v>
       </c>
       <c r="L108" s="33">
-        <f>L107+L106</f>
-        <v>9840241278.1137543</v>
-      </c>
-      <c r="M108" s="31" t="s">
+        <f t="shared" si="16"/>
+        <v>494400000</v>
+      </c>
+      <c r="M108" s="33">
+        <f>M107+M106</f>
+        <v>12354667407.407188</v>
+      </c>
+      <c r="N108" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="N108" s="58" t="s">
+      <c r="O108" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="O108" s="55">
-        <f>O105</f>
-        <v>7.9223047976080971E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" ht="19">
-      <c r="H109" s="65" t="s">
+      <c r="P108" s="55">
+        <f>P105</f>
+        <v>8.0057765479904425E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="19">
+      <c r="I109" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="I109" s="65"/>
-    </row>
-    <row r="110" spans="1:16" ht="20">
-      <c r="H110" s="59" t="s">
+      <c r="J109" s="65"/>
+    </row>
+    <row r="110" spans="1:17" ht="20">
+      <c r="I110" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="I110" s="50">
-        <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>7244184555.4574585</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" ht="20">
-      <c r="H111" s="59" t="s">
+      <c r="J110" s="50">
+        <f>NPV(P108,I108,J108,K108,L108,M108)</f>
+        <v>9406027208.7369461</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="20">
+      <c r="I111" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="I111" s="50">
-        <f>G40</f>
-        <v>860949000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" ht="20">
-      <c r="H112" s="59" t="s">
+      <c r="J111" s="50">
+        <f>H40</f>
+        <v>915000000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="20">
+      <c r="I112" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="I112" s="50">
-        <f>O99</f>
-        <v>594221000</v>
-      </c>
-    </row>
-    <row r="113" spans="8:9" ht="20">
-      <c r="H113" s="59" t="s">
+      <c r="J112" s="50">
+        <f>P99</f>
+        <v>594000000</v>
+      </c>
+    </row>
+    <row r="113" spans="9:10" ht="20">
+      <c r="I113" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="I113" s="50">
-        <f>I110+I111-I112</f>
-        <v>7510912555.4574585</v>
-      </c>
-    </row>
-    <row r="114" spans="8:9" ht="20">
-      <c r="H114" s="59" t="s">
+      <c r="J113" s="50">
+        <f>J110+J111-J112</f>
+        <v>9727027208.7369461</v>
+      </c>
+    </row>
+    <row r="114" spans="9:10" ht="20">
+      <c r="I114" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="I114" s="59">
+      <c r="J114" s="59">
         <f>G34*(1+(5*0.05))</f>
         <v>115683931.25</v>
       </c>
     </row>
-    <row r="115" spans="8:9" ht="20">
-      <c r="H115" s="60" t="s">
+    <row r="115" spans="9:10" ht="20">
+      <c r="I115" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="I115" s="61">
-        <f>I113/I114</f>
-        <v>64.926152442260289</v>
-      </c>
-    </row>
-    <row r="116" spans="8:9" ht="20">
-      <c r="H116" s="59" t="s">
+      <c r="J115" s="61">
+        <f>J113/J114</f>
+        <v>84.082785773559593</v>
+      </c>
+    </row>
+    <row r="116" spans="9:10" ht="20">
+      <c r="I116" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="I116" s="62" cm="1">
-        <f t="array" ref="I116">_FV(A1,"Price")</f>
+      <c r="J116" s="62" cm="1">
+        <f t="array" ref="J116">_FV(A1,"Price")</f>
         <v>64.319999999999993</v>
       </c>
     </row>
-    <row r="117" spans="8:9" ht="20">
-      <c r="H117" s="60" t="s">
+    <row r="117" spans="9:10" ht="20">
+      <c r="I117" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="I117" s="63">
-        <f>I115/I116-1</f>
-        <v>9.4240118510617865E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="8:9" ht="20">
-      <c r="H118" s="60" t="s">
+      <c r="J117" s="63">
+        <f>J115/J116-1</f>
+        <v>0.30725724150434708</v>
+      </c>
+    </row>
+    <row r="118" spans="9:10" ht="20">
+      <c r="I118" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="I118" s="64" t="str">
-        <f>IF(I115&gt;I116,"BUY","SELL")</f>
+      <c r="J118" s="64" t="str">
+        <f>IF(J115&gt;J116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="O104:P104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ESTC" display="ROIC.AI | ESTC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6136,10 +6568,12 @@
     <hyperlink ref="F74" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1707753/000170775321000026/0001707753-21-000026-index.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G36" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1707753/000170775322000025/0001707753-22-000025-index.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="G74" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1707753/000170775322000025/0001707753-22-000025-index.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H1" r:id="rId14" display="https://finbox.com/NYSE:ESTC/explorer/revenue_proj" xr:uid="{059F6893-8E61-ED47-A875-B12979FC0C0A}"/>
-    <hyperlink ref="M106" r:id="rId15" xr:uid="{B059B52A-8D77-B94A-8774-A8245E7AAD12}"/>
+    <hyperlink ref="I1" r:id="rId14" display="https://finbox.com/NYSE:ESTC/explorer/revenue_proj" xr:uid="{059F6893-8E61-ED47-A875-B12979FC0C0A}"/>
+    <hyperlink ref="N106" r:id="rId15" xr:uid="{B059B52A-8D77-B94A-8774-A8245E7AAD12}"/>
+    <hyperlink ref="H36" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1707753/000170775322000025/0001707753-22-000025-index.htm" xr:uid="{61153C97-9048-3346-B93C-729219223FF6}"/>
+    <hyperlink ref="H74" r:id="rId17" tooltip="https://www.sec.gov/Archives/edgar/data/1707753/000170775322000025/0001707753-22-000025-index.htm" xr:uid="{B5077449-C3EE-8642-B775-26E1077346D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId16"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/Technology/Software/Elastic N.V.xlsx
+++ b/Technology/Software/Elastic N.V.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D792AAF-89B9-7448-AEE3-81C0FF772FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C9F5F3-C2B4-804F-9444-064CA262DC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2215,20 +2215,25 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Fidelity Growth"/>
+      <sheetName val="IRA"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Best Mature"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.6829999999999997E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2248,6 +2253,11 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2373,35 +2383,35 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>91.3</v>
+    <v>82.84</v>
     <v>46.18</v>
-    <v>0.98460000000000003</v>
-    <v>1.68</v>
-    <v>2.682E-2</v>
+    <v>0.87429999999999997</v>
+    <v>-1.44</v>
+    <v>-1.7788999999999999E-2</v>
     <v>USD</v>
     <v>Elastic NV is a Netherlands-based data analytics company. The Company’s platform, which is available as both a hosted, managed service across public clouds as well as self-managed software, allows its customers to find insights from large amounts of data and take action. The Company offers three search-powered solutions - Enterprise Search, Observability, and Security - that are built into the platform, which is built on the Elastic Stack, a set of software products that ingest data from any source, in any format, and perform search, analysis, and visualization of that data. The Company helps organizations, their employees, and their customers find what they need, while keeping mission-critical applications running smoothly, and protecting against cyber threats. The Company generates revenue primarily from sales of subscriptions to its platform.</v>
-    <v>2886</v>
+    <v>2995</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Keizersgracht 281, AMSTERDAM, NOORD-HOLLAND, Amsterdam NL</v>
-    <v>65.239999999999995</v>
+    <v>81.69</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.958333367969</v>
+    <v>45202.970173807815</v>
     <v>0</v>
-    <v>62.67</v>
-    <v>6264182000</v>
+    <v>78.94</v>
+    <v>7825300255</v>
     <v>Elastic NV</v>
     <v>Elastic NV</v>
-    <v>62.94</v>
-    <v>62.64</v>
-    <v>64.319999999999993</v>
-    <v>97390890</v>
+    <v>79.900000000000006</v>
+    <v>80.95</v>
+    <v>79.510000000000005</v>
+    <v>98419070</v>
     <v>ESTC</v>
     <v>Elastic NV (XNYS:ESTC)</v>
-    <v>100</v>
-    <v>1534331</v>
+    <v>1363168</v>
+    <v>1380052</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2967,10 +2977,10 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
+      <selection pane="bottomRight" activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3619,15 +3629,15 @@
       </c>
       <c r="O16" s="35">
         <f>P101/H3</f>
-        <v>5.8598521983161831</v>
+        <v>7.3202060383536018</v>
       </c>
       <c r="P16" s="35">
         <f>P101/H28</f>
-        <v>-26.543144067796611</v>
+        <v>-33.158051927966099</v>
       </c>
       <c r="Q16" s="36">
         <f>P101/H107</f>
-        <v>189.95033052337922</v>
+        <v>237.28850309297107</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19">
@@ -3740,15 +3750,15 @@
       </c>
       <c r="O19" s="35">
         <f>P101/I3</f>
-        <v>5.0355160771704179</v>
+        <v>6.2904342885852094</v>
       </c>
       <c r="P19" s="35">
         <f>P101/I28</f>
-        <v>60.994956183057447</v>
+        <v>76.195718159688411</v>
       </c>
       <c r="Q19" s="36">
         <f>P101/I106</f>
-        <v>38.219536302623553</v>
+        <v>47.744357870652834</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1">
@@ -3885,7 +3895,7 @@
       </c>
       <c r="Q22" s="38">
         <f>H107/P101</f>
-        <v>5.2645341402915817E-3</v>
+        <v>4.2142791874252494E-3</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19">
@@ -5938,7 +5948,7 @@
       </c>
       <c r="P94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.6829999999999997E-2</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="20">
@@ -5971,7 +5981,7 @@
       </c>
       <c r="P95" s="49" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>0.98460000000000003</v>
+        <v>0.87429999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="20">
@@ -6036,7 +6046,7 @@
       </c>
       <c r="P97" s="47">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.3308848000000005E-2</v>
+        <v>7.9327731000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19">
@@ -6132,7 +6142,7 @@
       </c>
       <c r="P100" s="47">
         <f>P99/P103</f>
-        <v>8.6611874692156032E-2</v>
+        <v>7.0552181536374006E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20">
@@ -6165,7 +6175,7 @@
       </c>
       <c r="P101" s="50" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6264182000</v>
+        <v>7825300255</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20">
@@ -6198,7 +6208,7 @@
       </c>
       <c r="P102" s="47">
         <f>P101/P103</f>
-        <v>0.91338812530784397</v>
+        <v>0.92944781846362601</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20">
@@ -6231,7 +6241,7 @@
       </c>
       <c r="P103" s="51">
         <f>P99+P101</f>
-        <v>6858182000</v>
+        <v>8419300255</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1">
@@ -6324,7 +6334,7 @@
       </c>
       <c r="P105" s="53">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>8.0057765479904425E-2</v>
+        <v>7.6960345170043756E-2</v>
       </c>
       <c r="Q105" s="15"/>
     </row>
@@ -6334,27 +6344,27 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:H106" si="16">(C107/B107)-1</f>
         <v>0.40336283185840704</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="16"/>
         <v>0.15121705133055863</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="16"/>
         <v>0.30101519135261467</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="16"/>
         <v>-1.5141044713279255</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="16"/>
         <v>-1.0952718934265124</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="16"/>
         <v>-19.898567335243552</v>
       </c>
       <c r="I106" s="32">
@@ -6414,7 +6424,7 @@
       <c r="L107" s="30"/>
       <c r="M107" s="33">
         <f>M106*(1+P107)/(P108-P107)</f>
-        <v>11724867407.407188</v>
+        <v>12423801225.480896</v>
       </c>
       <c r="N107" s="31" t="s">
         <v>146</v>
@@ -6428,24 +6438,24 @@
     </row>
     <row r="108" spans="1:17" ht="19">
       <c r="I108" s="33">
-        <f t="shared" ref="I108:L108" si="16">I107+I106</f>
+        <f t="shared" ref="I108:L108" si="17">I107+I106</f>
         <v>163900000</v>
       </c>
       <c r="J108" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>225300000</v>
       </c>
       <c r="K108" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>367500000</v>
       </c>
       <c r="L108" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>494400000</v>
       </c>
       <c r="M108" s="33">
         <f>M107+M106</f>
-        <v>12354667407.407188</v>
+        <v>13053601225.480896</v>
       </c>
       <c r="N108" s="31" t="s">
         <v>143</v>
@@ -6455,7 +6465,7 @@
       </c>
       <c r="P108" s="55">
         <f>P105</f>
-        <v>8.0057765479904425E-2</v>
+        <v>7.6960345170043756E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19">
@@ -6470,7 +6480,7 @@
       </c>
       <c r="J110" s="50">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>9406027208.7369461</v>
+        <v>10018312273.884808</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20">
@@ -6497,7 +6507,7 @@
       </c>
       <c r="J113" s="50">
         <f>J110+J111-J112</f>
-        <v>9727027208.7369461</v>
+        <v>10339312273.884808</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20">
@@ -6515,7 +6525,7 @@
       </c>
       <c r="J115" s="61">
         <f>J113/J114</f>
-        <v>84.082785773559593</v>
+        <v>89.375526593584766</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20">
@@ -6524,7 +6534,7 @@
       </c>
       <c r="J116" s="62" cm="1">
         <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>64.319999999999993</v>
+        <v>79.510000000000005</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20">
@@ -6533,7 +6543,7 @@
       </c>
       <c r="J117" s="63">
         <f>J115/J116-1</f>
-        <v>0.30725724150434708</v>
+        <v>0.12407906670336755</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20">
